--- a/400_Reading_Workbook.xlsx
+++ b/400_Reading_Workbook.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27309"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27510"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emma/Documents/400 June 2016/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Data/GitHub/LitReview/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="33600" yWindow="0" windowWidth="19160" windowHeight="21600" tabRatio="500"/>
+    <workbookView xWindow="14440" yWindow="460" windowWidth="19160" windowHeight="18940" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2223,7 +2223,7 @@
       <name val="Calibri (Body)"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2233,18 +2233,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2261,7 +2249,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2302,14 +2290,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -2318,43 +2300,53 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2635,830 +2627,738 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AE1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AF64" sqref="AF64"/>
+    <sheetView tabSelected="1" topLeftCell="AJ1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AJ1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.1640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.6640625" style="14" customWidth="1"/>
-    <col min="4" max="5" width="21.83203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="4.6640625" style="1" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="5" style="1" hidden="1" customWidth="1"/>
-    <col min="8" max="9" width="6.1640625" style="1" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="6.83203125" style="1" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="6.5" style="1" hidden="1" customWidth="1"/>
-    <col min="12" max="15" width="9.1640625" style="1" hidden="1" customWidth="1"/>
-    <col min="16" max="18" width="4.83203125" style="1" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="6.33203125" style="1" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="6.1640625" style="1" hidden="1" customWidth="1"/>
-    <col min="21" max="22" width="6.33203125" style="1" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="7.1640625" style="1" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="6.83203125" style="1" hidden="1" customWidth="1"/>
-    <col min="25" max="25" width="6.6640625" style="1" hidden="1" customWidth="1"/>
-    <col min="26" max="27" width="7" style="1" hidden="1" customWidth="1"/>
-    <col min="28" max="28" width="6.1640625" style="1" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="8.33203125" style="1" hidden="1" customWidth="1"/>
-    <col min="30" max="30" width="8.1640625" style="1" hidden="1" customWidth="1"/>
-    <col min="31" max="31" width="10.83203125" style="1"/>
-    <col min="32" max="32" width="18" style="1" customWidth="1"/>
-    <col min="33" max="33" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="29.6640625" style="1" customWidth="1"/>
-    <col min="35" max="35" width="27.6640625" style="1" customWidth="1"/>
-    <col min="36" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="16.5" style="16" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" style="16" customWidth="1"/>
+    <col min="3" max="3" width="6.6640625" style="21" customWidth="1"/>
+    <col min="4" max="5" width="21.83203125" style="16" customWidth="1"/>
+    <col min="6" max="6" width="4.6640625" style="16" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="5" style="16" hidden="1" customWidth="1"/>
+    <col min="8" max="9" width="6.1640625" style="16" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="6.83203125" style="16" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="6.5" style="16" hidden="1" customWidth="1"/>
+    <col min="12" max="15" width="9.1640625" style="16" hidden="1" customWidth="1"/>
+    <col min="16" max="18" width="4.83203125" style="16" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="6.33203125" style="16" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="6.1640625" style="16" hidden="1" customWidth="1"/>
+    <col min="21" max="22" width="6.33203125" style="16" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="7.1640625" style="16" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="6.83203125" style="16" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="6.6640625" style="16" hidden="1" customWidth="1"/>
+    <col min="26" max="27" width="7" style="16" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="6.1640625" style="16" hidden="1" customWidth="1"/>
+    <col min="29" max="29" width="8.33203125" style="16" hidden="1" customWidth="1"/>
+    <col min="30" max="30" width="8.1640625" style="16" hidden="1" customWidth="1"/>
+    <col min="31" max="31" width="10.83203125" style="16"/>
+    <col min="32" max="32" width="18" style="16" customWidth="1"/>
+    <col min="33" max="33" width="16.5" style="16" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="29.6640625" style="16" customWidth="1"/>
+    <col min="35" max="35" width="27.6640625" style="16" customWidth="1"/>
+    <col min="36" max="16384" width="10.83203125" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" ht="56" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="19" t="s">
         <v>619</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="20" t="s">
         <v>405</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="20" t="s">
         <v>482</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="20" t="s">
         <v>361</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="20" t="s">
         <v>534</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="R1" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="S1" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="T1" s="20" t="s">
         <v>428</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="U1" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="V1" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="W1" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="X1" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="Y1" s="20" t="s">
         <v>413</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="Z1" s="20" t="s">
         <v>412</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AA1" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AB1" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="AC1" s="4" t="s">
+      <c r="AC1" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="AD1" s="4" t="s">
+      <c r="AD1" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AE1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AF1" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AG1" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="AH1" s="3" t="s">
+      <c r="AH1" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="AI1" s="4"/>
-      <c r="AJ1" s="4"/>
-    </row>
-    <row r="2" spans="1:36" s="4" customFormat="1" ht="84" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="AI1" s="20"/>
+      <c r="AJ1" s="20"/>
+    </row>
+    <row r="2" spans="1:36" s="20" customFormat="1" ht="84" x14ac:dyDescent="0.2">
+      <c r="A2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="C2" s="19">
+      <c r="C2" s="21">
         <v>2015</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="16" t="s">
         <v>187</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="1"/>
-      <c r="AA2" s="1"/>
-      <c r="AB2" s="1"/>
-      <c r="AC2" s="1"/>
-      <c r="AD2" s="1"/>
-      <c r="AE2" s="1" t="s">
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="16"/>
+      <c r="T2" s="16"/>
+      <c r="U2" s="16"/>
+      <c r="V2" s="16"/>
+      <c r="W2" s="16"/>
+      <c r="X2" s="16"/>
+      <c r="Y2" s="16"/>
+      <c r="Z2" s="16"/>
+      <c r="AA2" s="16"/>
+      <c r="AB2" s="16"/>
+      <c r="AC2" s="16"/>
+      <c r="AD2" s="16"/>
+      <c r="AE2" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="AF2" s="1" t="s">
+      <c r="AF2" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="AG2" s="1" t="s">
+      <c r="AG2" s="16" t="s">
         <v>194</v>
       </c>
-      <c r="AH2" s="1"/>
-      <c r="AI2" s="1"/>
-      <c r="AJ2" s="1"/>
-    </row>
-    <row r="3" spans="1:36" s="5" customFormat="1" ht="98" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="AH2" s="16"/>
+      <c r="AI2" s="16"/>
+      <c r="AJ2" s="16"/>
+    </row>
+    <row r="3" spans="1:36" ht="98" x14ac:dyDescent="0.2">
+      <c r="A3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="16" t="s">
         <v>314</v>
       </c>
-      <c r="C3" s="19">
+      <c r="C3" s="21">
         <v>2013</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="16" t="s">
         <v>315</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
-      <c r="W3" s="1"/>
-      <c r="X3" s="1"/>
-      <c r="Y3" s="1"/>
-      <c r="Z3" s="1"/>
-      <c r="AA3" s="1"/>
-      <c r="AB3" s="1"/>
-      <c r="AC3" s="1"/>
-      <c r="AD3" s="1"/>
-      <c r="AE3" s="1" t="s">
+      <c r="AE3" s="16" t="s">
         <v>317</v>
       </c>
-      <c r="AF3" s="1" t="s">
+      <c r="AF3" s="16" t="s">
         <v>318</v>
       </c>
-      <c r="AG3" s="1" t="s">
+      <c r="AG3" s="16" t="s">
         <v>319</v>
       </c>
-      <c r="AH3" s="1"/>
-      <c r="AI3" s="1"/>
-      <c r="AJ3" s="1"/>
-    </row>
-    <row r="4" spans="1:36" s="22" customFormat="1" ht="70" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+    </row>
+    <row r="4" spans="1:36" ht="70" x14ac:dyDescent="0.2">
+      <c r="A4" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="16" t="s">
         <v>617</v>
       </c>
-      <c r="C4" s="25">
+      <c r="C4" s="21">
         <v>2016</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="16" t="s">
         <v>618</v>
       </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
-      <c r="V4" s="1"/>
-      <c r="W4" s="1"/>
-      <c r="X4" s="1"/>
-      <c r="Y4" s="1"/>
-      <c r="Z4" s="1"/>
-      <c r="AA4" s="1"/>
-      <c r="AB4" s="1"/>
-      <c r="AC4" s="1"/>
-      <c r="AD4" s="1"/>
-      <c r="AE4" s="1"/>
-      <c r="AF4" s="1"/>
-      <c r="AG4" s="1"/>
-      <c r="AH4" s="1"/>
-      <c r="AI4" s="1"/>
-      <c r="AJ4" s="1"/>
     </row>
     <row r="5" spans="1:36" ht="154" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="16" t="s">
         <v>229</v>
       </c>
-      <c r="C5" s="25">
+      <c r="C5" s="21">
         <v>2015</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="16" t="s">
         <v>230</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="16" t="s">
         <v>231</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="Y5" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="Z5" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="AA5" s="1" t="s">
+      <c r="G5" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="J5" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="P5" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="R5" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="S5" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="Y5" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="Z5" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="AA5" s="16" t="s">
         <v>232</v>
       </c>
-      <c r="AB5" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="AC5" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="AD5" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="AE5" s="1" t="s">
+      <c r="AB5" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="AC5" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="AD5" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="AE5" s="16" t="s">
         <v>233</v>
       </c>
-      <c r="AF5" s="1" t="s">
+      <c r="AF5" s="16" t="s">
         <v>234</v>
       </c>
-      <c r="AG5" s="1" t="s">
+      <c r="AG5" s="16" t="s">
         <v>235</v>
       </c>
-      <c r="AH5" s="1" t="s">
+      <c r="AH5" s="16" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="6" spans="1:36" ht="126" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="C6" s="25">
+      <c r="C6" s="21">
         <v>2004</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="16" t="s">
         <v>166</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="P6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S6" s="1" t="s">
+      <c r="P6" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="S6" s="16" t="s">
         <v>167</v>
       </c>
-      <c r="AC6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AE6" s="1" t="s">
+      <c r="AC6" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD6" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE6" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="AF6" s="1" t="s">
+      <c r="AF6" s="16" t="s">
         <v>168</v>
       </c>
-      <c r="AG6" s="1" t="s">
+      <c r="AG6" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="AH6" s="1" t="s">
+      <c r="AH6" s="16" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="7" spans="1:36" ht="268" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="C7" s="19">
+      <c r="C7" s="21">
         <v>2002</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="16" t="s">
         <v>454</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="16" t="s">
         <v>455</v>
       </c>
-      <c r="AE7" s="1" t="s">
+      <c r="AE7" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="AF7" s="1" t="s">
+      <c r="AF7" s="16" t="s">
         <v>456</v>
       </c>
-      <c r="AG7" s="1" t="s">
+      <c r="AG7" s="16" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="8" spans="1:36" ht="217" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="C8" s="19">
+      <c r="C8" s="21">
         <v>2004</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="16" t="s">
         <v>480</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="16" t="s">
         <v>481</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="N8" s="1" t="s">
+      <c r="G8" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="L8" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="N8" s="16" t="s">
         <v>483</v>
       </c>
-      <c r="R8" s="1" t="s">
+      <c r="R8" s="16" t="s">
         <v>484</v>
       </c>
-      <c r="AC8" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="AD8" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="AE8" s="1" t="s">
+      <c r="AC8" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="AD8" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="AE8" s="16" t="s">
         <v>485</v>
       </c>
-      <c r="AF8" s="1" t="s">
+      <c r="AF8" s="16" t="s">
         <v>486</v>
       </c>
-      <c r="AG8" s="1" t="s">
+      <c r="AG8" s="16" t="s">
         <v>487</v>
       </c>
-      <c r="AH8" s="1" t="s">
+      <c r="AH8" s="16" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="9" spans="1:36" ht="56" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="C9" s="19">
+      <c r="C9" s="21">
         <v>2012</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="16" t="s">
         <v>566</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="16" t="s">
         <v>567</v>
       </c>
-      <c r="AF9" s="1" t="s">
+      <c r="AF9" s="16" t="s">
         <v>568</v>
       </c>
     </row>
     <row r="10" spans="1:36" ht="247" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="16" t="s">
         <v>497</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="21" t="s">
         <v>498</v>
       </c>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22" t="s">
+      <c r="E10" s="16" t="s">
         <v>499</v>
       </c>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="22"/>
-      <c r="O10" s="22"/>
-      <c r="P10" s="22"/>
-      <c r="Q10" s="22"/>
-      <c r="R10" s="22"/>
-      <c r="S10" s="22"/>
-      <c r="T10" s="22"/>
-      <c r="U10" s="22"/>
-      <c r="V10" s="22"/>
-      <c r="W10" s="22"/>
-      <c r="X10" s="22"/>
-      <c r="Y10" s="22"/>
-      <c r="Z10" s="22"/>
-      <c r="AA10" s="22"/>
-      <c r="AB10" s="22"/>
-      <c r="AC10" s="22"/>
-      <c r="AD10" s="22"/>
-      <c r="AE10" s="22"/>
-      <c r="AF10" s="22"/>
-      <c r="AG10" s="22"/>
-      <c r="AH10" s="22"/>
-      <c r="AI10" s="22"/>
-      <c r="AJ10" s="22"/>
     </row>
     <row r="11" spans="1:36" ht="112" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="16" t="s">
         <v>489</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="21" t="s">
         <v>490</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="16" t="s">
         <v>491</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="16" t="s">
         <v>492</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="S11" s="1" t="s">
+      <c r="G11" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="S11" s="16" t="s">
         <v>493</v>
       </c>
-      <c r="AC11" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="AD11" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="AE11" s="1" t="s">
+      <c r="AC11" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="AD11" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="AE11" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="AF11" s="1" t="s">
+      <c r="AF11" s="16" t="s">
         <v>495</v>
       </c>
-      <c r="AG11" s="1" t="s">
+      <c r="AG11" s="16" t="s">
         <v>494</v>
       </c>
-      <c r="AH11" s="1" t="s">
+      <c r="AH11" s="16" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="12" spans="1:36" ht="196" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="16" t="s">
         <v>320</v>
       </c>
-      <c r="C12" s="19">
+      <c r="C12" s="21">
         <v>2015</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="16" t="s">
         <v>321</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="16" t="s">
         <v>322</v>
       </c>
-      <c r="AE12" s="1" t="s">
+      <c r="AE12" s="16" t="s">
         <v>323</v>
       </c>
-      <c r="AF12" s="1" t="s">
+      <c r="AF12" s="16" t="s">
         <v>324</v>
       </c>
-      <c r="AG12" s="1" t="s">
+      <c r="AG12" s="16" t="s">
         <v>325</v>
       </c>
-      <c r="AH12" s="1" t="s">
+      <c r="AH12" s="16" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="13" spans="1:36" s="8" customFormat="1" ht="56" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:36" s="22" customFormat="1" ht="56" x14ac:dyDescent="0.2">
+      <c r="A13" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="16" t="s">
         <v>569</v>
       </c>
-      <c r="C13" s="19">
+      <c r="C13" s="21">
         <v>2016</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
-      <c r="T13" s="1"/>
-      <c r="U13" s="1"/>
-      <c r="V13" s="1"/>
-      <c r="W13" s="1"/>
-      <c r="X13" s="1"/>
-      <c r="Y13" s="1"/>
-      <c r="Z13" s="1"/>
-      <c r="AA13" s="1"/>
-      <c r="AB13" s="1"/>
-      <c r="AC13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AE13" s="1"/>
-      <c r="AF13" s="1"/>
-      <c r="AG13" s="1" t="s">
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="16"/>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="16"/>
+      <c r="R13" s="16"/>
+      <c r="S13" s="16"/>
+      <c r="T13" s="16"/>
+      <c r="U13" s="16"/>
+      <c r="V13" s="16"/>
+      <c r="W13" s="16"/>
+      <c r="X13" s="16"/>
+      <c r="Y13" s="16"/>
+      <c r="Z13" s="16"/>
+      <c r="AA13" s="16"/>
+      <c r="AB13" s="16"/>
+      <c r="AC13" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD13" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE13" s="16"/>
+      <c r="AF13" s="16"/>
+      <c r="AG13" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="AH13" s="1" t="s">
+      <c r="AH13" s="16" t="s">
         <v>173</v>
       </c>
-      <c r="AI13" s="1"/>
-      <c r="AJ13" s="1"/>
+      <c r="AI13" s="16"/>
+      <c r="AJ13" s="16"/>
     </row>
     <row r="14" spans="1:36" ht="70" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="C14" s="25">
+      <c r="C14" s="21">
         <v>2015</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="16" t="s">
         <v>190</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="16" t="s">
         <v>191</v>
       </c>
-      <c r="AC14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AE14" s="1" t="s">
+      <c r="AC14" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD14" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE14" s="16" t="s">
         <v>192</v>
       </c>
-      <c r="AG14" s="1" t="s">
+      <c r="AG14" s="16" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="15" spans="1:36" ht="94" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="16" t="s">
         <v>174</v>
       </c>
-      <c r="C15" s="25">
+      <c r="C15" s="21">
         <v>2015</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="16" t="s">
         <v>175</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="16" t="s">
         <v>176</v>
       </c>
-      <c r="AC15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AE15" s="1" t="s">
+      <c r="AC15" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD15" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE15" s="16" t="s">
         <v>178</v>
       </c>
-      <c r="AF15" s="1" t="s">
+      <c r="AF15" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="AG15" s="1" t="s">
+      <c r="AG15" s="16" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="16" spans="1:36" ht="291" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="16" t="s">
         <v>174</v>
       </c>
-      <c r="C16" s="25">
+      <c r="C16" s="21">
         <v>2013</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="16" t="s">
         <v>583</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" s="16" t="s">
         <v>584</v>
       </c>
-      <c r="AC16" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="AD16" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="AE16" s="1" t="s">
+      <c r="AC16" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="AD16" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="AE16" s="16" t="s">
         <v>584</v>
       </c>
-      <c r="AF16" s="1" t="s">
+      <c r="AF16" s="16" t="s">
         <v>585</v>
       </c>
-      <c r="AH16" s="27" t="s">
+      <c r="AH16" s="23" t="s">
         <v>586</v>
       </c>
     </row>
     <row r="17" spans="1:36" ht="42" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="16" t="s">
         <v>502</v>
       </c>
-      <c r="C17" s="14">
+      <c r="C17" s="21">
         <v>2004</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="16" t="s">
         <v>503</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" s="16" t="s">
         <v>504</v>
       </c>
-      <c r="G17" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="N17" s="1" t="s">
+      <c r="G17" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="K17" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="N17" s="16" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="18" spans="1:36" ht="112" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="16" t="s">
         <v>510</v>
       </c>
-      <c r="C18" s="19">
+      <c r="C18" s="21">
         <v>2006</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="16" t="s">
         <v>511</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" s="16" t="s">
         <v>512</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="J18" s="1" t="s">
+      <c r="F18" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="G18" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="J18" s="16" t="s">
         <v>513</v>
       </c>
-      <c r="L18" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="AC18" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="AD18" s="1" t="s">
+      <c r="L18" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="AC18" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="AD18" s="16" t="s">
         <v>514</v>
       </c>
-      <c r="AE18" s="1" t="s">
+      <c r="AE18" s="16" t="s">
         <v>214</v>
       </c>
-      <c r="AF18" s="1" t="s">
+      <c r="AF18" s="16" t="s">
         <v>515</v>
       </c>
-      <c r="AG18" s="1" t="s">
+      <c r="AG18" s="16" t="s">
         <v>516</v>
       </c>
     </row>
@@ -3466,3331 +3366,2552 @@
       <c r="A19" s="24" t="s">
         <v>628</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="16" t="s">
         <v>372</v>
       </c>
-      <c r="C19" s="23">
+      <c r="C19" s="21">
         <v>1986</v>
       </c>
-      <c r="D19" s="22" t="s">
+      <c r="D19" s="16" t="s">
         <v>374</v>
       </c>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="22"/>
-      <c r="L19" s="22"/>
-      <c r="M19" s="22"/>
-      <c r="N19" s="22"/>
-      <c r="O19" s="22"/>
-      <c r="P19" s="22"/>
-      <c r="Q19" s="22"/>
-      <c r="R19" s="22"/>
-      <c r="S19" s="22"/>
-      <c r="T19" s="22"/>
-      <c r="U19" s="22"/>
-      <c r="V19" s="22"/>
-      <c r="W19" s="22"/>
-      <c r="X19" s="22"/>
-      <c r="Y19" s="22"/>
-      <c r="Z19" s="22"/>
-      <c r="AA19" s="22"/>
-      <c r="AB19" s="22"/>
-      <c r="AC19" s="22"/>
-      <c r="AD19" s="22"/>
-      <c r="AE19" s="22"/>
-      <c r="AF19" s="22"/>
       <c r="AG19" s="24" t="s">
         <v>373</v>
       </c>
-      <c r="AH19" s="22"/>
-      <c r="AI19" s="22"/>
-      <c r="AJ19" s="22"/>
     </row>
     <row r="20" spans="1:36" ht="127" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="16" t="s">
         <v>628</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="C20" s="19">
+      <c r="C20" s="21">
         <v>1978</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="AG20" s="1" t="s">
+      <c r="AG20" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="AH20" s="1" t="s">
+      <c r="AH20" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="AI20" s="1" t="s">
+      <c r="AI20" s="16" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:36" ht="141" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="16" t="s">
         <v>628</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="14">
+      <c r="C21" s="21">
         <v>2012</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="16" t="s">
         <v>562</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21" s="16" t="s">
         <v>563</v>
       </c>
-      <c r="G21" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="N21" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="AA21" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="AC21" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="AD21" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="AE21" s="1" t="s">
+      <c r="G21" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="J21" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="K21" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="L21" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="N21" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="AA21" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="AC21" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="AD21" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="AE21" s="16" t="s">
         <v>485</v>
       </c>
-      <c r="AF21" s="1" t="s">
+      <c r="AF21" s="16" t="s">
         <v>564</v>
       </c>
-      <c r="AH21" s="1" t="s">
+      <c r="AH21" s="16" t="s">
         <v>565</v>
       </c>
     </row>
     <row r="22" spans="1:36" ht="112" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="16" t="s">
         <v>626</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="16" t="s">
         <v>359</v>
       </c>
-      <c r="C22" s="17">
+      <c r="C22" s="21">
         <v>2002</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="16" t="s">
         <v>364</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E22" s="16" t="s">
         <v>360</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="O22" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="AE22" s="1" t="s">
+      <c r="F22" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="G22" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="H22" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="J22" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="K22" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="O22" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="AE22" s="16" t="s">
         <v>363</v>
       </c>
-      <c r="AF22" s="1" t="s">
+      <c r="AF22" s="16" t="s">
         <v>362</v>
       </c>
-      <c r="AG22" s="1" t="s">
+      <c r="AG22" s="16" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="23" spans="1:36" ht="98" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="16" t="s">
         <v>626</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="C23" s="25">
+      <c r="C23" s="21">
         <v>2016</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E23" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="G23" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M23" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AC23" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AE23" s="1" t="s">
+      <c r="G23" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="J23" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="K23" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="M23" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC23" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE23" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="AF23" s="1" t="s">
+      <c r="AF23" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="AG23" s="1" t="s">
+      <c r="AG23" s="16" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="24" spans="1:36" ht="42" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="16" t="s">
         <v>625</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="16" t="s">
         <v>597</v>
       </c>
-      <c r="C24" s="25">
+      <c r="C24" s="21">
         <v>2014</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="16" t="s">
         <v>598</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E24" s="16" t="s">
         <v>599</v>
       </c>
-      <c r="AE24" s="1" t="s">
+      <c r="AE24" s="16" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="25" spans="1:36" ht="56" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="16" t="s">
         <v>625</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="16" t="s">
         <v>353</v>
       </c>
-      <c r="C25" s="25">
+      <c r="C25" s="21">
         <v>2007</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="16" t="s">
         <v>532</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E25" s="16" t="s">
         <v>533</v>
       </c>
-      <c r="G25" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="L25" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="P25" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="Q25" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="AA25" s="1" t="s">
+      <c r="G25" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="J25" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="K25" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="L25" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="P25" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q25" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="AA25" s="16" t="s">
         <v>346</v>
       </c>
-      <c r="AG25" s="1" t="s">
+      <c r="AG25" s="16" t="s">
         <v>535</v>
       </c>
     </row>
     <row r="26" spans="1:36" ht="42" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="16" t="s">
         <v>625</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="16" t="s">
         <v>551</v>
       </c>
-      <c r="C26" s="25">
+      <c r="C26" s="21">
         <v>2009</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" s="16" t="s">
         <v>552</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E26" s="16" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="27" spans="1:36" s="12" customFormat="1" ht="28" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
+    <row r="27" spans="1:36" s="25" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="A27" s="16" t="s">
         <v>625</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="16" t="s">
         <v>556</v>
       </c>
-      <c r="C27" s="17">
+      <c r="C27" s="21">
         <v>2012</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" s="16" t="s">
         <v>561</v>
       </c>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
-      <c r="Q27" s="1"/>
-      <c r="R27" s="1"/>
-      <c r="S27" s="1"/>
-      <c r="T27" s="1"/>
-      <c r="U27" s="1"/>
-      <c r="V27" s="1"/>
-      <c r="W27" s="1"/>
-      <c r="X27" s="1"/>
-      <c r="Y27" s="1"/>
-      <c r="Z27" s="1"/>
-      <c r="AA27" s="1"/>
-      <c r="AB27" s="1"/>
-      <c r="AC27" s="1"/>
-      <c r="AD27" s="1"/>
-      <c r="AE27" s="1"/>
-      <c r="AF27" s="1"/>
-      <c r="AG27" s="1"/>
-      <c r="AH27" s="1"/>
-      <c r="AI27" s="1"/>
-      <c r="AJ27" s="1"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="16"/>
+      <c r="M27" s="16"/>
+      <c r="N27" s="16"/>
+      <c r="O27" s="16"/>
+      <c r="P27" s="16"/>
+      <c r="Q27" s="16"/>
+      <c r="R27" s="16"/>
+      <c r="S27" s="16"/>
+      <c r="T27" s="16"/>
+      <c r="U27" s="16"/>
+      <c r="V27" s="16"/>
+      <c r="W27" s="16"/>
+      <c r="X27" s="16"/>
+      <c r="Y27" s="16"/>
+      <c r="Z27" s="16"/>
+      <c r="AA27" s="16"/>
+      <c r="AB27" s="16"/>
+      <c r="AC27" s="16"/>
+      <c r="AD27" s="16"/>
+      <c r="AE27" s="16"/>
+      <c r="AF27" s="16"/>
+      <c r="AG27" s="16"/>
+      <c r="AH27" s="16"/>
+      <c r="AI27" s="16"/>
+      <c r="AJ27" s="16"/>
     </row>
     <row r="28" spans="1:36" ht="28" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="16" t="s">
         <v>625</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="16" t="s">
         <v>590</v>
       </c>
-      <c r="C28" s="25">
+      <c r="C28" s="21">
         <v>2014</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="16" t="s">
         <v>591</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E28" s="16" t="s">
         <v>592</v>
       </c>
     </row>
     <row r="29" spans="1:36" ht="182" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="16" t="s">
         <v>647</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="16" t="s">
         <v>278</v>
       </c>
-      <c r="C29" s="19">
+      <c r="C29" s="21">
         <v>2010</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" s="16" t="s">
         <v>283</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E29" s="16" t="s">
         <v>279</v>
       </c>
-      <c r="AG29" s="1" t="s">
+      <c r="AG29" s="16" t="s">
         <v>646</v>
       </c>
-      <c r="AH29" s="15" t="s">
+      <c r="AH29" s="24" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="30" spans="1:36" ht="98" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="16" t="s">
         <v>629</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="16" t="s">
         <v>383</v>
       </c>
-      <c r="C30" s="14">
+      <c r="C30" s="21">
         <v>1987</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" s="16" t="s">
         <v>384</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="E30" s="16" t="s">
         <v>385</v>
       </c>
-      <c r="AG30" s="1" t="s">
+      <c r="AG30" s="16" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="31" spans="1:36" ht="42" x14ac:dyDescent="0.2">
-      <c r="A31" s="22" t="s">
+      <c r="A31" s="16" t="s">
         <v>644</v>
       </c>
-      <c r="B31" s="22" t="s">
+      <c r="B31" s="16" t="s">
         <v>397</v>
       </c>
-      <c r="C31" s="23">
+      <c r="C31" s="21">
         <v>1993</v>
       </c>
-      <c r="D31" s="22" t="s">
+      <c r="D31" s="16" t="s">
         <v>398</v>
       </c>
-      <c r="E31" s="22" t="s">
+      <c r="E31" s="16" t="s">
         <v>399</v>
       </c>
-      <c r="F31" s="22"/>
-      <c r="G31" s="22"/>
-      <c r="H31" s="22"/>
-      <c r="I31" s="22" t="s">
-        <v>253</v>
-      </c>
-      <c r="J31" s="22"/>
-      <c r="K31" s="22"/>
-      <c r="L31" s="22"/>
-      <c r="M31" s="22"/>
-      <c r="N31" s="22"/>
-      <c r="O31" s="22"/>
-      <c r="P31" s="22"/>
-      <c r="Q31" s="22"/>
-      <c r="R31" s="22"/>
-      <c r="S31" s="22" t="s">
+      <c r="I31" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="S31" s="16" t="s">
         <v>400</v>
       </c>
-      <c r="T31" s="22"/>
-      <c r="U31" s="22"/>
-      <c r="V31" s="22"/>
-      <c r="W31" s="22"/>
-      <c r="X31" s="22"/>
-      <c r="Y31" s="22"/>
-      <c r="Z31" s="22"/>
-      <c r="AA31" s="22" t="s">
-        <v>211</v>
-      </c>
-      <c r="AB31" s="22"/>
-      <c r="AC31" s="22"/>
-      <c r="AD31" s="22"/>
-      <c r="AE31" s="22"/>
-      <c r="AF31" s="22" t="s">
+      <c r="AA31" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="AF31" s="16" t="s">
         <v>401</v>
       </c>
-      <c r="AG31" s="22"/>
-      <c r="AH31" s="22" t="s">
+      <c r="AH31" s="16" t="s">
         <v>402</v>
       </c>
-      <c r="AI31" s="22"/>
-      <c r="AJ31" s="22"/>
     </row>
     <row r="32" spans="1:36" ht="294" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="16" t="s">
         <v>663</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="16" t="s">
         <v>288</v>
       </c>
-      <c r="C32" s="19">
+      <c r="C32" s="21">
         <v>2002</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="E32" s="16" t="s">
         <v>447</v>
       </c>
-      <c r="P32" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="R32" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="S32" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="Y32" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="Z32" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="AA32" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="AC32" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="AD32" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="AE32" s="1" t="s">
+      <c r="P32" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="R32" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="S32" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="Y32" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="Z32" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="AA32" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="AC32" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="AD32" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="AE32" s="16" t="s">
         <v>446</v>
       </c>
-      <c r="AF32" s="15" t="s">
+      <c r="AF32" s="24" t="s">
         <v>445</v>
       </c>
-      <c r="AG32" s="1" t="s">
+      <c r="AG32" s="16" t="s">
         <v>662</v>
       </c>
-      <c r="AH32" s="1" t="s">
+      <c r="AH32" s="16" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="33" spans="1:36" ht="168" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="16" t="s">
         <v>650</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="16" t="s">
         <v>301</v>
       </c>
-      <c r="C33" s="25" t="s">
+      <c r="C33" s="21" t="s">
         <v>276</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" s="16" t="s">
         <v>302</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="E33" s="16" t="s">
         <v>303</v>
       </c>
-      <c r="P33" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="R33" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="S33" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="U33" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="V33" s="1" t="s">
+      <c r="P33" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="R33" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="S33" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="U33" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="V33" s="16" t="s">
         <v>304</v>
       </c>
-      <c r="X33" s="1" t="s">
+      <c r="X33" s="16" t="s">
         <v>305</v>
       </c>
-      <c r="Y33" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="Z33" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="AA33" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="AC33" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="AD33" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="AE33" s="1" t="s">
+      <c r="Y33" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="Z33" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="AA33" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="AC33" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="AD33" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="AE33" s="16" t="s">
         <v>290</v>
       </c>
-      <c r="AF33" s="1" t="s">
+      <c r="AF33" s="16" t="s">
         <v>306</v>
       </c>
-      <c r="AG33" s="1" t="s">
+      <c r="AG33" s="16" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="34" spans="1:36" ht="140" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="16" t="s">
         <v>643</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="26" t="s">
         <v>577</v>
       </c>
-      <c r="C34" s="14">
+      <c r="C34" s="21">
         <v>2013</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" s="16" t="s">
         <v>578</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="E34" s="16" t="s">
         <v>579</v>
       </c>
-      <c r="G34" s="1" t="s">
+      <c r="G34" s="16" t="s">
         <v>580</v>
       </c>
-      <c r="P34" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="Q34" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="R34" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="Z34" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="AC34" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="AD34" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="AE34" s="1" t="s">
+      <c r="P34" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q34" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="R34" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="Z34" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="AC34" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="AD34" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="AE34" s="16" t="s">
         <v>581</v>
       </c>
-      <c r="AF34" s="1" t="s">
+      <c r="AF34" s="16" t="s">
         <v>582</v>
       </c>
     </row>
     <row r="35" spans="1:36" ht="182" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="16" t="s">
         <v>666</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C35" s="19">
+      <c r="C35" s="21">
         <v>2015</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D35" s="16" t="s">
         <v>613</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="E35" s="16" t="s">
         <v>612</v>
       </c>
-      <c r="J35" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="K35" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="N35" s="1" t="s">
+      <c r="J35" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="K35" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="N35" s="16" t="s">
         <v>614</v>
       </c>
-      <c r="AC35" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="AF35" s="1" t="s">
+      <c r="AC35" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="AF35" s="16" t="s">
         <v>616</v>
       </c>
-      <c r="AH35" s="1" t="s">
+      <c r="AH35" s="16" t="s">
         <v>615</v>
       </c>
     </row>
     <row r="36" spans="1:36" ht="212" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="16" t="s">
         <v>624</v>
       </c>
-      <c r="B36" s="20" t="s">
+      <c r="B36" s="16" t="s">
         <v>353</v>
       </c>
       <c r="C36" s="21">
         <v>2004</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D36" s="16" t="s">
         <v>461</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="E36" s="16" t="s">
         <v>355</v>
       </c>
-      <c r="G36" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="K36" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="L36" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="P36" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="AA36" s="1" t="s">
+      <c r="G36" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="H36" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="J36" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="K36" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="L36" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="P36" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="AA36" s="16" t="s">
         <v>346</v>
       </c>
-      <c r="AC36" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD36" s="1" t="s">
+      <c r="AC36" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD36" s="16" t="s">
         <v>356</v>
       </c>
-      <c r="AE36" s="1" t="s">
+      <c r="AE36" s="16" t="s">
         <v>354</v>
       </c>
-      <c r="AF36" s="1" t="s">
+      <c r="AF36" s="16" t="s">
         <v>357</v>
       </c>
-      <c r="AG36" s="1" t="s">
+      <c r="AG36" s="16" t="s">
         <v>358</v>
       </c>
-      <c r="AH36" s="27" t="s">
+      <c r="AH36" s="23" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="37" spans="1:36" ht="140" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="15" t="s">
+      <c r="A37" s="24" t="s">
         <v>624</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="16" t="s">
         <v>255</v>
       </c>
-      <c r="C37" s="19">
+      <c r="C37" s="21">
         <v>1997</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D37" s="16" t="s">
         <v>410</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="E37" s="16" t="s">
         <v>411</v>
       </c>
-      <c r="P37" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="U37" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="W37" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="X37" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="Y37" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="Z37" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="AA37" s="1" t="s">
+      <c r="P37" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="U37" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="W37" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="X37" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="Y37" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="Z37" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="AA37" s="16" t="s">
         <v>416</v>
       </c>
-      <c r="AE37" s="1" t="s">
+      <c r="AE37" s="16" t="s">
         <v>214</v>
       </c>
-      <c r="AF37" s="1" t="s">
+      <c r="AF37" s="16" t="s">
         <v>415</v>
       </c>
-      <c r="AG37" s="15" t="s">
+      <c r="AG37" s="24" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="38" spans="1:36" ht="239" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+      <c r="A38" s="16" t="s">
         <v>624</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="C38" s="19">
+      <c r="C38" s="21">
         <v>2014</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D38" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="E38" s="16" t="s">
         <v>660</v>
       </c>
-      <c r="G38" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AE38" s="1" t="s">
+      <c r="G38" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE38" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="AF38" s="1" t="s">
+      <c r="AF38" s="16" t="s">
         <v>661</v>
       </c>
-      <c r="AG38" s="1" t="s">
+      <c r="AG38" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="AH38" s="1" t="s">
+      <c r="AH38" s="16" t="s">
         <v>594</v>
       </c>
-      <c r="AI38" s="26" t="s">
+      <c r="AI38" s="27" t="s">
         <v>595</v>
       </c>
     </row>
     <row r="39" spans="1:36" ht="196" x14ac:dyDescent="0.2">
-      <c r="A39" s="12" t="s">
+      <c r="A39" s="25" t="s">
         <v>624</v>
       </c>
-      <c r="B39" s="12" t="s">
+      <c r="B39" s="25" t="s">
         <v>202</v>
       </c>
-      <c r="C39" s="13">
+      <c r="C39" s="28">
         <v>1995</v>
       </c>
-      <c r="D39" s="12" t="s">
+      <c r="D39" s="25" t="s">
         <v>204</v>
       </c>
-      <c r="E39" s="12" t="s">
+      <c r="E39" s="25" t="s">
         <v>203</v>
       </c>
-      <c r="F39" s="12"/>
-      <c r="G39" s="12"/>
-      <c r="H39" s="12"/>
-      <c r="I39" s="12"/>
-      <c r="J39" s="12"/>
-      <c r="K39" s="12"/>
-      <c r="L39" s="12"/>
-      <c r="M39" s="12"/>
-      <c r="N39" s="12"/>
-      <c r="O39" s="12"/>
-      <c r="P39" s="12"/>
-      <c r="Q39" s="12"/>
-      <c r="R39" s="12"/>
-      <c r="S39" s="12"/>
-      <c r="T39" s="12"/>
-      <c r="U39" s="12"/>
-      <c r="V39" s="12"/>
-      <c r="W39" s="12"/>
-      <c r="X39" s="12"/>
-      <c r="Y39" s="12"/>
-      <c r="Z39" s="12"/>
-      <c r="AA39" s="12"/>
-      <c r="AB39" s="12"/>
-      <c r="AC39" s="12"/>
-      <c r="AD39" s="12"/>
-      <c r="AE39" s="12"/>
-      <c r="AF39" s="12"/>
-      <c r="AG39" s="12" t="s">
+      <c r="F39" s="25"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="25"/>
+      <c r="I39" s="25"/>
+      <c r="J39" s="25"/>
+      <c r="K39" s="25"/>
+      <c r="L39" s="25"/>
+      <c r="M39" s="25"/>
+      <c r="N39" s="25"/>
+      <c r="O39" s="25"/>
+      <c r="P39" s="25"/>
+      <c r="Q39" s="25"/>
+      <c r="R39" s="25"/>
+      <c r="S39" s="25"/>
+      <c r="T39" s="25"/>
+      <c r="U39" s="25"/>
+      <c r="V39" s="25"/>
+      <c r="W39" s="25"/>
+      <c r="X39" s="25"/>
+      <c r="Y39" s="25"/>
+      <c r="Z39" s="25"/>
+      <c r="AA39" s="25"/>
+      <c r="AB39" s="25"/>
+      <c r="AC39" s="25"/>
+      <c r="AD39" s="25"/>
+      <c r="AE39" s="25"/>
+      <c r="AF39" s="25"/>
+      <c r="AG39" s="25" t="s">
         <v>205</v>
       </c>
-      <c r="AH39" s="12" t="s">
+      <c r="AH39" s="25" t="s">
         <v>206</v>
       </c>
-      <c r="AI39" s="12"/>
-      <c r="AJ39" s="12"/>
+      <c r="AI39" s="25"/>
+      <c r="AJ39" s="25"/>
     </row>
     <row r="40" spans="1:36" ht="84" x14ac:dyDescent="0.2">
-      <c r="A40" s="15" t="s">
+      <c r="A40" s="24" t="s">
         <v>654</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="16" t="s">
         <v>330</v>
       </c>
-      <c r="C40" s="19">
+      <c r="C40" s="21">
         <v>2008</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D40" s="16" t="s">
         <v>331</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="E40" s="16" t="s">
         <v>332</v>
       </c>
-      <c r="R40" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="Y40" s="1" t="s">
+      <c r="R40" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="Y40" s="16" t="s">
         <v>333</v>
       </c>
-      <c r="AB40" s="1" t="s">
+      <c r="AB40" s="16" t="s">
         <v>334</v>
       </c>
-      <c r="AF40" s="1" t="s">
+      <c r="AF40" s="16" t="s">
         <v>335</v>
       </c>
-      <c r="AG40" s="15" t="s">
+      <c r="AG40" s="24" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="41" spans="1:36" ht="234" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="22" t="s">
+      <c r="A41" s="16" t="s">
         <v>669</v>
       </c>
-      <c r="B41" s="22" t="s">
+      <c r="B41" s="16" t="s">
         <v>407</v>
       </c>
-      <c r="C41" s="23">
+      <c r="C41" s="21">
         <v>1996</v>
       </c>
-      <c r="D41" s="22" t="s">
+      <c r="D41" s="16" t="s">
         <v>408</v>
       </c>
-      <c r="E41" s="22" t="s">
+      <c r="E41" s="16" t="s">
         <v>409</v>
       </c>
-      <c r="F41" s="22"/>
-      <c r="G41" s="22"/>
-      <c r="H41" s="22"/>
-      <c r="I41" s="22"/>
-      <c r="J41" s="22"/>
-      <c r="K41" s="22"/>
-      <c r="L41" s="22"/>
-      <c r="M41" s="22"/>
-      <c r="N41" s="22"/>
-      <c r="O41" s="22"/>
-      <c r="P41" s="22"/>
-      <c r="Q41" s="22"/>
-      <c r="R41" s="22"/>
-      <c r="S41" s="22"/>
-      <c r="T41" s="22"/>
-      <c r="U41" s="22"/>
-      <c r="V41" s="22"/>
-      <c r="W41" s="22"/>
-      <c r="X41" s="22"/>
-      <c r="Y41" s="22"/>
-      <c r="Z41" s="22"/>
-      <c r="AA41" s="22"/>
-      <c r="AB41" s="22"/>
-      <c r="AC41" s="22"/>
-      <c r="AD41" s="22"/>
-      <c r="AE41" s="22"/>
-      <c r="AF41" s="22"/>
-      <c r="AG41" s="22"/>
-      <c r="AH41" s="22"/>
-      <c r="AI41" s="22"/>
-      <c r="AJ41" s="22"/>
     </row>
     <row r="42" spans="1:36" ht="183" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
+      <c r="A42" s="16" t="s">
         <v>640</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="16" t="s">
         <v>270</v>
       </c>
-      <c r="C42" s="14">
+      <c r="C42" s="21">
         <v>2014</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D42" s="16" t="s">
         <v>271</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="E42" s="16" t="s">
         <v>251</v>
       </c>
-      <c r="P42" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="R42" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="S42" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="U42" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="AA42" s="1" t="s">
+      <c r="P42" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="R42" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="S42" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="U42" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="AA42" s="16" t="s">
         <v>232</v>
       </c>
-      <c r="AC42" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="AD42" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="AE42" s="1" t="s">
+      <c r="AC42" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="AD42" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="AE42" s="16" t="s">
         <v>272</v>
       </c>
-      <c r="AF42" s="1" t="s">
+      <c r="AF42" s="16" t="s">
         <v>273</v>
       </c>
-      <c r="AG42" s="1" t="s">
+      <c r="AG42" s="16" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="43" spans="1:36" ht="70" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
+      <c r="A43" s="16" t="s">
         <v>639</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="C43" s="19">
+      <c r="C43" s="21">
         <v>2014</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D43" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="E43" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="G43" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J43" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L43" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AE43" s="1" t="s">
+      <c r="G43" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H43" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="J43" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="L43" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE43" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="AF43" s="1" t="s">
+      <c r="AF43" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="AG43" s="1" t="s">
+      <c r="AG43" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="AI43" s="10"/>
+      <c r="AI43" s="29"/>
     </row>
     <row r="44" spans="1:36" ht="228" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="22" t="s">
+      <c r="A44" s="16" t="s">
         <v>639</v>
       </c>
-      <c r="B44" s="22" t="s">
+      <c r="B44" s="16" t="s">
         <v>549</v>
       </c>
-      <c r="C44" s="23">
+      <c r="C44" s="21">
         <v>2009</v>
       </c>
-      <c r="D44" s="22" t="s">
+      <c r="D44" s="16" t="s">
         <v>550</v>
       </c>
-      <c r="E44" s="22"/>
-      <c r="F44" s="22"/>
-      <c r="G44" s="22"/>
-      <c r="H44" s="22"/>
-      <c r="I44" s="22"/>
-      <c r="J44" s="22"/>
-      <c r="K44" s="22"/>
-      <c r="L44" s="22"/>
-      <c r="M44" s="22"/>
-      <c r="N44" s="22"/>
-      <c r="O44" s="22"/>
-      <c r="P44" s="22"/>
-      <c r="Q44" s="22"/>
-      <c r="R44" s="22"/>
-      <c r="S44" s="22"/>
-      <c r="T44" s="22"/>
-      <c r="U44" s="22"/>
-      <c r="V44" s="22"/>
-      <c r="W44" s="22"/>
-      <c r="X44" s="22"/>
-      <c r="Y44" s="22"/>
-      <c r="Z44" s="22"/>
-      <c r="AA44" s="22"/>
-      <c r="AB44" s="22"/>
-      <c r="AC44" s="22"/>
-      <c r="AD44" s="22"/>
-      <c r="AE44" s="22"/>
-      <c r="AF44" s="22"/>
-      <c r="AG44" s="22"/>
-      <c r="AH44" s="22"/>
-      <c r="AI44" s="22"/>
-      <c r="AJ44" s="22"/>
     </row>
     <row r="45" spans="1:36" ht="97" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="22" t="s">
+      <c r="A45" s="16" t="s">
         <v>639</v>
       </c>
-      <c r="B45" s="22" t="s">
+      <c r="B45" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="C45" s="23">
+      <c r="C45" s="21">
         <v>1995</v>
       </c>
-      <c r="D45" s="22" t="s">
+      <c r="D45" s="16" t="s">
         <v>404</v>
       </c>
-      <c r="E45" s="22" t="s">
+      <c r="E45" s="16" t="s">
         <v>403</v>
       </c>
-      <c r="F45" s="22"/>
-      <c r="G45" s="22" t="s">
+      <c r="G45" s="16" t="s">
         <v>406</v>
       </c>
-      <c r="H45" s="22" t="s">
-        <v>211</v>
-      </c>
-      <c r="I45" s="22" t="s">
-        <v>253</v>
-      </c>
-      <c r="J45" s="22"/>
-      <c r="K45" s="22"/>
-      <c r="L45" s="22" t="s">
-        <v>253</v>
-      </c>
-      <c r="M45" s="22"/>
-      <c r="N45" s="22"/>
-      <c r="O45" s="22"/>
-      <c r="P45" s="22"/>
-      <c r="Q45" s="22"/>
-      <c r="R45" s="22"/>
-      <c r="S45" s="22"/>
-      <c r="T45" s="22"/>
-      <c r="U45" s="22"/>
-      <c r="V45" s="22"/>
-      <c r="W45" s="22"/>
-      <c r="X45" s="22"/>
-      <c r="Y45" s="22"/>
-      <c r="Z45" s="22"/>
-      <c r="AA45" s="22"/>
-      <c r="AB45" s="22"/>
-      <c r="AC45" s="22"/>
-      <c r="AD45" s="22"/>
-      <c r="AE45" s="22"/>
-      <c r="AF45" s="22"/>
-      <c r="AG45" s="22"/>
-      <c r="AH45" s="22"/>
-      <c r="AI45" s="22"/>
-      <c r="AJ45" s="22"/>
+      <c r="H45" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="I45" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="L45" s="16" t="s">
+        <v>253</v>
+      </c>
     </row>
     <row r="46" spans="1:36" ht="112" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
+      <c r="A46" s="16" t="s">
         <v>665</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="C46" s="25">
+      <c r="C46" s="21">
         <v>1999</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D46" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="E46" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="H46" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L46" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S46" s="1" t="s">
+      <c r="H46" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="L46" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="S46" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="U46" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y46" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AC46" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD46" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AE46" s="1" t="s">
+      <c r="U46" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y46" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC46" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD46" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE46" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="AF46" s="1" t="s">
+      <c r="AF46" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="AG46" s="1" t="s">
+      <c r="AG46" s="16" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="47" spans="1:36" ht="140" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
+      <c r="A47" s="16" t="s">
         <v>659</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="26" t="s">
         <v>537</v>
       </c>
-      <c r="C47" s="14">
+      <c r="C47" s="21">
         <v>2007</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="D47" s="16" t="s">
         <v>538</v>
       </c>
-      <c r="E47" s="1" t="s">
+      <c r="E47" s="16" t="s">
         <v>539</v>
       </c>
-      <c r="AF47" s="1" t="s">
+      <c r="AF47" s="16" t="s">
         <v>523</v>
       </c>
-      <c r="AG47" s="1" t="s">
+      <c r="AG47" s="16" t="s">
         <v>540</v>
       </c>
     </row>
     <row r="48" spans="1:36" ht="98" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
+      <c r="A48" s="16" t="s">
         <v>633</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" s="16" t="s">
         <v>295</v>
       </c>
-      <c r="C48" s="19">
+      <c r="C48" s="21">
         <v>2016</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="D48" s="16" t="s">
         <v>296</v>
       </c>
-      <c r="E48" s="1" t="s">
+      <c r="E48" s="16" t="s">
         <v>297</v>
       </c>
-      <c r="P48" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="R48" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="S48" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="U48" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="Y48" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="Z48" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="AA48" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="AE48" s="1" t="s">
+      <c r="P48" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="R48" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="S48" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="U48" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="Y48" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="Z48" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="AA48" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="AE48" s="16" t="s">
         <v>298</v>
       </c>
-      <c r="AF48" s="1" t="s">
+      <c r="AF48" s="16" t="s">
         <v>299</v>
       </c>
-      <c r="AG48" s="1" t="s">
+      <c r="AG48" s="16" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="49" spans="1:36" ht="154" x14ac:dyDescent="0.2">
-      <c r="A49" s="22" t="s">
+    <row r="49" spans="1:35" ht="154" x14ac:dyDescent="0.2">
+      <c r="A49" s="16" t="s">
         <v>633</v>
       </c>
-      <c r="B49" s="22" t="s">
+      <c r="B49" s="16" t="s">
         <v>600</v>
       </c>
-      <c r="C49" s="23">
+      <c r="C49" s="21">
         <v>2014</v>
       </c>
-      <c r="D49" s="22" t="s">
+      <c r="D49" s="16" t="s">
         <v>602</v>
       </c>
-      <c r="E49" s="22" t="s">
+      <c r="E49" s="16" t="s">
         <v>603</v>
       </c>
-      <c r="F49" s="22"/>
-      <c r="G49" s="22"/>
-      <c r="H49" s="22"/>
-      <c r="I49" s="22"/>
-      <c r="J49" s="22"/>
-      <c r="K49" s="22"/>
-      <c r="L49" s="22"/>
-      <c r="M49" s="22"/>
-      <c r="N49" s="22"/>
-      <c r="O49" s="22"/>
-      <c r="P49" s="22"/>
-      <c r="Q49" s="22"/>
-      <c r="R49" s="22"/>
-      <c r="S49" s="22"/>
-      <c r="T49" s="22"/>
-      <c r="U49" s="22"/>
-      <c r="V49" s="22"/>
-      <c r="W49" s="22"/>
-      <c r="X49" s="22"/>
-      <c r="Y49" s="22"/>
-      <c r="Z49" s="22"/>
-      <c r="AA49" s="22"/>
-      <c r="AB49" s="22"/>
-      <c r="AC49" s="22" t="s">
-        <v>253</v>
-      </c>
-      <c r="AD49" s="22" t="s">
-        <v>253</v>
-      </c>
-      <c r="AE49" s="22" t="s">
+      <c r="AC49" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="AD49" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="AE49" s="16" t="s">
         <v>214</v>
       </c>
-      <c r="AF49" s="22" t="s">
+      <c r="AF49" s="16" t="s">
         <v>601</v>
       </c>
-      <c r="AG49" s="22"/>
-      <c r="AH49" s="22"/>
-      <c r="AI49" s="22"/>
-      <c r="AJ49" s="22"/>
-    </row>
-    <row r="50" spans="1:36" ht="140" x14ac:dyDescent="0.2">
-      <c r="A50" s="15" t="s">
+    </row>
+    <row r="50" spans="1:35" ht="140" x14ac:dyDescent="0.2">
+      <c r="A50" s="24" t="s">
         <v>655</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B50" s="16" t="s">
         <v>327</v>
       </c>
-      <c r="C50" s="14">
+      <c r="C50" s="21">
         <v>2008</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="D50" s="16" t="s">
         <v>328</v>
       </c>
-      <c r="AG50" s="15" t="s">
+      <c r="AG50" s="24" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="51" spans="1:36" ht="192" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="15" t="s">
+    <row r="51" spans="1:35" ht="192" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="24" t="s">
         <v>636</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B51" s="16" t="s">
         <v>242</v>
       </c>
-      <c r="C51" s="14" t="s">
+      <c r="C51" s="21" t="s">
         <v>243</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="D51" s="16" t="s">
         <v>244</v>
       </c>
-      <c r="E51" s="1" t="s">
+      <c r="E51" s="16" t="s">
         <v>245</v>
       </c>
-      <c r="AG51" s="15" t="s">
+      <c r="AG51" s="24" t="s">
         <v>247</v>
       </c>
-      <c r="AH51" s="1" t="s">
+      <c r="AH51" s="16" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="52" spans="1:36" ht="186" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="1" t="s">
+    <row r="52" spans="1:35" ht="186" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="16" t="s">
         <v>621</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B52" s="16" t="s">
         <v>207</v>
       </c>
-      <c r="C52" s="17">
+      <c r="C52" s="21">
         <v>2002</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="D52" s="16" t="s">
         <v>208</v>
       </c>
-      <c r="E52" s="1" t="s">
+      <c r="E52" s="16" t="s">
         <v>209</v>
       </c>
-      <c r="P52" s="1" t="s">
+      <c r="P52" s="16" t="s">
         <v>210</v>
       </c>
-      <c r="R52" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="S52" s="1" t="s">
+      <c r="R52" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="S52" s="16" t="s">
         <v>212</v>
       </c>
-      <c r="U52" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="AC52" s="1" t="s">
+      <c r="U52" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="AC52" s="16" t="s">
         <v>213</v>
       </c>
-      <c r="AD52" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="AE52" s="1" t="s">
+      <c r="AD52" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="AE52" s="16" t="s">
         <v>214</v>
       </c>
-      <c r="AF52" s="1" t="s">
+      <c r="AF52" s="16" t="s">
         <v>215</v>
       </c>
-      <c r="AG52" s="1" t="s">
+      <c r="AG52" s="16" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="53" spans="1:36" ht="112" x14ac:dyDescent="0.2">
-      <c r="A53" s="1" t="s">
+    <row r="53" spans="1:35" ht="112" x14ac:dyDescent="0.2">
+      <c r="A53" s="16" t="s">
         <v>621</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B53" s="16" t="s">
         <v>388</v>
       </c>
-      <c r="C53" s="19">
+      <c r="C53" s="21">
         <v>1993</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="D53" s="16" t="s">
         <v>392</v>
       </c>
-      <c r="E53" s="1" t="s">
+      <c r="E53" s="16" t="s">
         <v>391</v>
       </c>
-      <c r="G53" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="J53" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="L53" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="AC53" s="1" t="s">
+      <c r="G53" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="H53" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="J53" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="L53" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="AC53" s="16" t="s">
         <v>394</v>
       </c>
-      <c r="AD53" s="1" t="s">
+      <c r="AD53" s="16" t="s">
         <v>393</v>
       </c>
-      <c r="AE53" s="1" t="s">
+      <c r="AE53" s="16" t="s">
         <v>395</v>
       </c>
-      <c r="AG53" s="1" t="s">
+      <c r="AG53" s="16" t="s">
         <v>396</v>
       </c>
-      <c r="AH53" s="1" t="s">
+      <c r="AH53" s="16" t="s">
         <v>389</v>
       </c>
-      <c r="AI53" s="1" t="s">
+      <c r="AI53" s="16" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="54" spans="1:36" s="22" customFormat="1" ht="84" x14ac:dyDescent="0.2">
-      <c r="A54" s="1" t="s">
+    <row r="54" spans="1:35" ht="84" x14ac:dyDescent="0.2">
+      <c r="A54" s="16" t="s">
         <v>635</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B54" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="C54" s="19">
+      <c r="C54" s="21">
         <v>2016</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="D54" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="E54" s="1" t="s">
+      <c r="E54" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
-      <c r="H54" s="1"/>
-      <c r="I54" s="1"/>
-      <c r="J54" s="1"/>
-      <c r="K54" s="1"/>
-      <c r="L54" s="1"/>
-      <c r="M54" s="1"/>
-      <c r="N54" s="1"/>
-      <c r="O54" s="1"/>
-      <c r="P54" s="1"/>
-      <c r="Q54" s="1"/>
-      <c r="R54" s="1"/>
-      <c r="S54" s="1"/>
-      <c r="T54" s="1"/>
-      <c r="U54" s="1"/>
-      <c r="V54" s="1"/>
-      <c r="W54" s="1"/>
-      <c r="X54" s="1"/>
-      <c r="Y54" s="1"/>
-      <c r="Z54" s="1"/>
-      <c r="AA54" s="1"/>
-      <c r="AB54" s="1"/>
-      <c r="AC54" s="1"/>
-      <c r="AD54" s="1"/>
-      <c r="AE54" s="1" t="s">
+      <c r="AE54" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="AF54" s="1" t="s">
+      <c r="AF54" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="AG54" s="1" t="s">
+      <c r="AG54" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="AH54" s="1" t="s">
+      <c r="AH54" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="AI54" s="1"/>
-      <c r="AJ54" s="1"/>
-    </row>
-    <row r="55" spans="1:36" s="22" customFormat="1" ht="140" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
+    </row>
+    <row r="55" spans="1:35" ht="140" x14ac:dyDescent="0.2">
+      <c r="A55" s="16" t="s">
         <v>635</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B55" s="16" t="s">
         <v>255</v>
       </c>
-      <c r="C55" s="19">
+      <c r="C55" s="21">
         <v>2010</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="D55" s="16" t="s">
         <v>256</v>
       </c>
-      <c r="E55" s="1" t="s">
+      <c r="E55" s="16" t="s">
         <v>257</v>
       </c>
-      <c r="F55" s="1"/>
-      <c r="G55" s="1"/>
-      <c r="H55" s="1"/>
-      <c r="I55" s="1"/>
-      <c r="J55" s="1"/>
-      <c r="K55" s="1"/>
-      <c r="L55" s="1"/>
-      <c r="M55" s="1"/>
-      <c r="N55" s="1"/>
-      <c r="O55" s="1"/>
-      <c r="P55" s="1"/>
-      <c r="Q55" s="1"/>
-      <c r="R55" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="S55" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="T55" s="1"/>
-      <c r="U55" s="1"/>
-      <c r="V55" s="1"/>
-      <c r="W55" s="1"/>
-      <c r="X55" s="1"/>
-      <c r="Y55" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="Z55" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="AA55" s="1" t="s">
+      <c r="R55" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="S55" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="Y55" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="Z55" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="AA55" s="16" t="s">
         <v>258</v>
       </c>
-      <c r="AB55" s="1"/>
-      <c r="AC55" s="1"/>
-      <c r="AD55" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="AE55" s="1" t="s">
+      <c r="AD55" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="AE55" s="16" t="s">
         <v>259</v>
       </c>
-      <c r="AF55" s="1" t="s">
+      <c r="AF55" s="16" t="s">
         <v>260</v>
       </c>
-      <c r="AG55" s="1" t="s">
+      <c r="AG55" s="16" t="s">
         <v>261</v>
       </c>
-      <c r="AH55" s="1"/>
-      <c r="AI55" s="1"/>
-      <c r="AJ55" s="1"/>
-    </row>
-    <row r="56" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A56" s="1" t="s">
+    </row>
+    <row r="56" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="A56" s="16" t="s">
         <v>667</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B56" s="16" t="s">
         <v>459</v>
       </c>
-      <c r="C56" s="25">
+      <c r="C56" s="21">
         <v>2003</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="D56" s="16" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="57" spans="1:36" s="22" customFormat="1" ht="276" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="1" t="s">
+    <row r="57" spans="1:35" ht="276" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="16" t="s">
         <v>667</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B57" s="16" t="s">
         <v>451</v>
       </c>
-      <c r="C57" s="25">
+      <c r="C57" s="21">
         <v>2002</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="D57" s="16" t="s">
         <v>452</v>
       </c>
-      <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
-      <c r="G57" s="1"/>
-      <c r="H57" s="1"/>
-      <c r="I57" s="1"/>
-      <c r="J57" s="1"/>
-      <c r="K57" s="1"/>
-      <c r="L57" s="1"/>
-      <c r="M57" s="1"/>
-      <c r="N57" s="1"/>
-      <c r="O57" s="1"/>
-      <c r="P57" s="1"/>
-      <c r="Q57" s="1"/>
-      <c r="R57" s="1"/>
-      <c r="S57" s="1"/>
-      <c r="T57" s="1"/>
-      <c r="U57" s="1"/>
-      <c r="V57" s="1"/>
-      <c r="W57" s="1"/>
-      <c r="X57" s="1"/>
-      <c r="Y57" s="1"/>
-      <c r="Z57" s="1"/>
-      <c r="AA57" s="1"/>
-      <c r="AB57" s="1"/>
-      <c r="AC57" s="1"/>
-      <c r="AD57" s="1"/>
-      <c r="AE57" s="1"/>
-      <c r="AF57" s="1"/>
-      <c r="AG57" s="1"/>
-      <c r="AH57" s="1"/>
-      <c r="AI57" s="1"/>
-      <c r="AJ57" s="1"/>
-    </row>
-    <row r="58" spans="1:36" s="22" customFormat="1" ht="140" x14ac:dyDescent="0.2">
-      <c r="A58" s="1" t="s">
+    </row>
+    <row r="58" spans="1:35" ht="140" x14ac:dyDescent="0.2">
+      <c r="A58" s="16" t="s">
         <v>641</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B58" s="16" t="s">
         <v>466</v>
       </c>
-      <c r="C58" s="19">
+      <c r="C58" s="21">
         <v>2004</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="D58" s="16" t="s">
         <v>467</v>
       </c>
-      <c r="E58" s="1" t="s">
+      <c r="E58" s="16" t="s">
         <v>468</v>
       </c>
-      <c r="F58" s="1"/>
-      <c r="G58" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="H58" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="I58" s="1"/>
-      <c r="J58" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="K58" s="1"/>
-      <c r="L58" s="1"/>
-      <c r="M58" s="1"/>
-      <c r="N58" s="1"/>
-      <c r="O58" s="1"/>
-      <c r="P58" s="1"/>
-      <c r="Q58" s="1"/>
-      <c r="R58" s="1"/>
-      <c r="S58" s="1"/>
-      <c r="T58" s="1"/>
-      <c r="U58" s="1"/>
-      <c r="V58" s="1"/>
-      <c r="W58" s="1"/>
-      <c r="X58" s="1"/>
-      <c r="Y58" s="1"/>
-      <c r="Z58" s="1"/>
-      <c r="AA58" s="1"/>
-      <c r="AB58" s="1"/>
-      <c r="AC58" s="1"/>
-      <c r="AD58" s="1"/>
-      <c r="AE58" s="1"/>
-      <c r="AF58" s="1" t="s">
+      <c r="G58" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="H58" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="J58" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="AF58" s="16" t="s">
         <v>469</v>
       </c>
-      <c r="AG58" s="1"/>
-      <c r="AH58" s="1" t="s">
+      <c r="AH58" s="16" t="s">
         <v>470</v>
       </c>
-      <c r="AI58" s="1" t="s">
+      <c r="AI58" s="16" t="s">
         <v>471</v>
       </c>
-      <c r="AJ58" s="1"/>
-    </row>
-    <row r="59" spans="1:36" s="22" customFormat="1" ht="154" x14ac:dyDescent="0.2">
-      <c r="A59" s="1" t="s">
+    </row>
+    <row r="59" spans="1:35" ht="154" x14ac:dyDescent="0.2">
+      <c r="A59" s="16" t="s">
         <v>641</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B59" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C59" s="19">
+      <c r="C59" s="21">
         <v>2014</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="D59" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="E59" s="1" t="s">
+      <c r="E59" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="F59" s="18"/>
-      <c r="G59" s="18"/>
-      <c r="H59" s="18"/>
-      <c r="I59" s="18"/>
-      <c r="J59" s="18"/>
-      <c r="K59" s="18"/>
-      <c r="L59" s="18"/>
-      <c r="M59" s="18"/>
-      <c r="N59" s="18"/>
-      <c r="O59" s="18"/>
-      <c r="P59" s="18"/>
-      <c r="Q59" s="18"/>
-      <c r="R59" s="18"/>
-      <c r="S59" s="18"/>
-      <c r="T59" s="18"/>
-      <c r="U59" s="18"/>
-      <c r="V59" s="18"/>
-      <c r="W59" s="18"/>
-      <c r="X59" s="18"/>
-      <c r="Y59" s="18"/>
-      <c r="Z59" s="18"/>
-      <c r="AA59" s="18"/>
-      <c r="AB59" s="18"/>
-      <c r="AC59" s="18"/>
-      <c r="AD59" s="18"/>
-      <c r="AE59" s="1" t="s">
+      <c r="AE59" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="AF59" s="1" t="s">
+      <c r="AF59" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="AG59" s="1" t="s">
+      <c r="AG59" s="16" t="s">
         <v>657</v>
       </c>
-      <c r="AH59" s="1" t="s">
+      <c r="AH59" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="AI59" s="1" t="s">
+      <c r="AI59" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="AJ59" s="1"/>
-    </row>
-    <row r="60" spans="1:36" ht="125" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="1" t="s">
+    </row>
+    <row r="60" spans="1:35" ht="125" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="16" t="s">
         <v>641</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B60" s="16" t="s">
         <v>237</v>
       </c>
-      <c r="C60" s="25">
+      <c r="C60" s="21">
         <v>2016</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="D60" s="16" t="s">
         <v>238</v>
       </c>
-      <c r="E60" s="1" t="s">
+      <c r="E60" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="U60" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="W60" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="X60" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="Y60" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="Z60" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="AA60" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="AE60" s="1" t="s">
+      <c r="U60" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="W60" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="X60" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="Y60" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="Z60" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="AA60" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="AE60" s="16" t="s">
         <v>240</v>
       </c>
-      <c r="AF60" s="1" t="s">
+      <c r="AF60" s="16" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="61" spans="1:36" s="22" customFormat="1" ht="112" x14ac:dyDescent="0.2">
-      <c r="A61" s="15" t="s">
+    <row r="61" spans="1:35" ht="112" x14ac:dyDescent="0.2">
+      <c r="A61" s="24" t="s">
         <v>641</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B61" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="C61" s="25">
+      <c r="C61" s="21">
         <v>2002</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="D61" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
-      <c r="G61" s="1"/>
-      <c r="H61" s="1"/>
-      <c r="I61" s="1"/>
-      <c r="J61" s="1"/>
-      <c r="K61" s="1"/>
-      <c r="L61" s="1"/>
-      <c r="M61" s="1"/>
-      <c r="N61" s="1"/>
-      <c r="O61" s="1"/>
-      <c r="P61" s="1"/>
-      <c r="Q61" s="1"/>
-      <c r="R61" s="1"/>
-      <c r="S61" s="1"/>
-      <c r="T61" s="1"/>
-      <c r="U61" s="1"/>
-      <c r="V61" s="1"/>
-      <c r="W61" s="1"/>
-      <c r="X61" s="1"/>
-      <c r="Y61" s="1"/>
-      <c r="Z61" s="1"/>
-      <c r="AA61" s="1"/>
-      <c r="AB61" s="1"/>
-      <c r="AC61" s="1"/>
-      <c r="AD61" s="1"/>
-      <c r="AE61" s="1"/>
-      <c r="AF61" s="1"/>
-      <c r="AG61" s="15" t="s">
+      <c r="AG61" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="AH61" s="1"/>
-      <c r="AI61" s="1"/>
-      <c r="AJ61" s="1"/>
-    </row>
-    <row r="62" spans="1:36" s="22" customFormat="1" ht="126" x14ac:dyDescent="0.2">
-      <c r="A62" s="1" t="s">
+    </row>
+    <row r="62" spans="1:35" ht="126" x14ac:dyDescent="0.2">
+      <c r="A62" s="16" t="s">
         <v>641</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B62" s="16" t="s">
         <v>505</v>
       </c>
-      <c r="C62" s="19">
+      <c r="C62" s="21">
         <v>2005</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="D62" s="16" t="s">
         <v>507</v>
       </c>
-      <c r="E62" s="1" t="s">
+      <c r="E62" s="16" t="s">
         <v>506</v>
       </c>
-      <c r="F62" s="1"/>
-      <c r="G62" s="1"/>
-      <c r="H62" s="1"/>
-      <c r="I62" s="1"/>
-      <c r="J62" s="1"/>
-      <c r="K62" s="1"/>
-      <c r="L62" s="1"/>
-      <c r="M62" s="1"/>
-      <c r="N62" s="1"/>
-      <c r="O62" s="1"/>
-      <c r="P62" s="1"/>
-      <c r="Q62" s="1"/>
-      <c r="R62" s="1"/>
-      <c r="S62" s="1"/>
-      <c r="T62" s="1"/>
-      <c r="U62" s="1"/>
-      <c r="V62" s="1"/>
-      <c r="W62" s="1"/>
-      <c r="X62" s="1"/>
-      <c r="Y62" s="1"/>
-      <c r="Z62" s="1"/>
-      <c r="AA62" s="1"/>
-      <c r="AB62" s="1"/>
-      <c r="AC62" s="1"/>
-      <c r="AD62" s="1"/>
-      <c r="AE62" s="1"/>
-      <c r="AF62" s="1"/>
-      <c r="AG62" s="1"/>
-      <c r="AH62" s="1"/>
-      <c r="AI62" s="1"/>
-      <c r="AJ62" s="1"/>
-    </row>
-    <row r="63" spans="1:36" ht="239" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="1" t="s">
+    </row>
+    <row r="63" spans="1:35" ht="239" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="16" t="s">
         <v>620</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B63" s="16" t="s">
         <v>606</v>
       </c>
-      <c r="C63" s="14">
+      <c r="C63" s="21">
         <v>2014</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="D63" s="16" t="s">
         <v>607</v>
       </c>
-      <c r="E63" s="1" t="s">
+      <c r="E63" s="16" t="s">
         <v>608</v>
       </c>
-      <c r="AF63" s="1" t="s">
+      <c r="AF63" s="16" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="64" spans="1:36" s="22" customFormat="1" ht="210" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="1" t="s">
+    <row r="64" spans="1:35" ht="210" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="16" t="s">
         <v>620</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B64" s="16" t="s">
         <v>438</v>
       </c>
-      <c r="C64" s="25">
+      <c r="C64" s="21">
         <v>2001</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="D64" s="16" t="s">
         <v>440</v>
       </c>
-      <c r="E64" s="1" t="s">
+      <c r="E64" s="16" t="s">
         <v>439</v>
       </c>
-      <c r="F64" s="1"/>
-      <c r="G64" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="H64" s="1"/>
-      <c r="I64" s="1"/>
-      <c r="J64" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="K64" s="1"/>
-      <c r="L64" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="M64" s="1"/>
-      <c r="N64" s="1"/>
-      <c r="O64" s="1"/>
-      <c r="P64" s="1"/>
-      <c r="Q64" s="1"/>
-      <c r="R64" s="1"/>
-      <c r="S64" s="1"/>
-      <c r="T64" s="1"/>
-      <c r="U64" s="1"/>
-      <c r="V64" s="1"/>
-      <c r="W64" s="1"/>
-      <c r="X64" s="1"/>
-      <c r="Y64" s="1"/>
-      <c r="Z64" s="1"/>
-      <c r="AA64" s="1"/>
-      <c r="AB64" s="1"/>
-      <c r="AC64" s="1"/>
-      <c r="AD64" s="1"/>
-      <c r="AE64" s="1"/>
-      <c r="AF64" s="1" t="s">
+      <c r="G64" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="J64" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="L64" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="AF64" s="16" t="s">
         <v>631</v>
       </c>
-      <c r="AG64" s="1" t="s">
+      <c r="AG64" s="16" t="s">
         <v>441</v>
       </c>
-      <c r="AH64" s="1" t="s">
+      <c r="AH64" s="16" t="s">
         <v>442</v>
       </c>
-      <c r="AI64" s="1"/>
-      <c r="AJ64" s="1"/>
-    </row>
-    <row r="65" spans="1:36" s="22" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="1" t="s">
+    </row>
+    <row r="65" spans="1:36" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="16" t="s">
         <v>620</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B65" s="16" t="s">
         <v>422</v>
       </c>
-      <c r="C65" s="25">
+      <c r="C65" s="21">
         <v>1999</v>
       </c>
-      <c r="D65" s="1" t="s">
+      <c r="D65" s="16" t="s">
         <v>423</v>
       </c>
-      <c r="E65" s="1" t="s">
+      <c r="E65" s="16" t="s">
         <v>421</v>
       </c>
-      <c r="F65" s="1"/>
-      <c r="G65" s="1"/>
-      <c r="H65" s="1"/>
-      <c r="I65" s="1"/>
-      <c r="J65" s="1"/>
-      <c r="K65" s="1"/>
-      <c r="L65" s="1"/>
-      <c r="M65" s="1"/>
-      <c r="N65" s="1"/>
-      <c r="O65" s="1"/>
-      <c r="P65" s="1"/>
-      <c r="Q65" s="1"/>
-      <c r="R65" s="1"/>
-      <c r="S65" s="1"/>
-      <c r="T65" s="1"/>
-      <c r="U65" s="1"/>
-      <c r="V65" s="1"/>
-      <c r="W65" s="1"/>
-      <c r="X65" s="1"/>
-      <c r="Y65" s="1"/>
-      <c r="Z65" s="1"/>
-      <c r="AA65" s="1"/>
-      <c r="AB65" s="1"/>
-      <c r="AC65" s="1"/>
-      <c r="AD65" s="1"/>
-      <c r="AE65" s="1"/>
-      <c r="AF65" s="15" t="s">
+      <c r="AF65" s="24" t="s">
         <v>424</v>
       </c>
-      <c r="AG65" s="1" t="s">
+      <c r="AG65" s="16" t="s">
         <v>425</v>
       </c>
-      <c r="AH65" s="1"/>
-      <c r="AI65" s="1"/>
-      <c r="AJ65" s="1"/>
-    </row>
-    <row r="66" spans="1:36" s="22" customFormat="1" ht="86" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="1" t="s">
+    </row>
+    <row r="66" spans="1:36" ht="86" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="16" t="s">
         <v>620</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B66" s="16" t="s">
         <v>417</v>
       </c>
-      <c r="C66" s="19">
+      <c r="C66" s="21">
         <v>1997</v>
       </c>
-      <c r="D66" s="15" t="s">
+      <c r="D66" s="24" t="s">
         <v>418</v>
       </c>
-      <c r="E66" s="1" t="s">
+      <c r="E66" s="16" t="s">
         <v>421</v>
       </c>
-      <c r="F66" s="1"/>
-      <c r="G66" s="1" t="s">
+      <c r="G66" s="16" t="s">
         <v>419</v>
       </c>
-      <c r="H66" s="1"/>
-      <c r="I66" s="1"/>
-      <c r="J66" s="1"/>
-      <c r="K66" s="1"/>
-      <c r="L66" s="1"/>
-      <c r="M66" s="1"/>
-      <c r="N66" s="1"/>
-      <c r="O66" s="1"/>
-      <c r="P66" s="1"/>
-      <c r="Q66" s="1"/>
-      <c r="R66" s="1"/>
-      <c r="S66" s="1"/>
-      <c r="T66" s="1"/>
-      <c r="U66" s="1"/>
-      <c r="V66" s="1"/>
-      <c r="W66" s="1"/>
-      <c r="X66" s="1"/>
-      <c r="Y66" s="1"/>
-      <c r="Z66" s="1"/>
-      <c r="AA66" s="1"/>
-      <c r="AB66" s="1"/>
-      <c r="AC66" s="1"/>
-      <c r="AD66" s="1"/>
-      <c r="AE66" s="1"/>
-      <c r="AF66" s="15" t="s">
+      <c r="AF66" s="24" t="s">
         <v>420</v>
       </c>
-      <c r="AG66" s="1"/>
-      <c r="AH66" s="1"/>
-      <c r="AI66" s="1"/>
-      <c r="AJ66" s="1"/>
     </row>
     <row r="67" spans="1:36" ht="378" x14ac:dyDescent="0.2">
-      <c r="A67" s="1" t="s">
+      <c r="A67" s="16" t="s">
         <v>620</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="B67" s="16" t="s">
         <v>157</v>
       </c>
-      <c r="C67" s="14">
+      <c r="C67" s="21">
         <v>2001</v>
       </c>
-      <c r="D67" s="1" t="s">
+      <c r="D67" s="16" t="s">
         <v>158</v>
       </c>
-      <c r="E67" s="1" t="s">
+      <c r="E67" s="16" t="s">
         <v>159</v>
       </c>
-      <c r="AC67" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD67" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AE67" s="1" t="s">
+      <c r="AC67" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD67" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE67" s="16" t="s">
         <v>160</v>
       </c>
-      <c r="AF67" s="1" t="s">
+      <c r="AF67" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="AG67" s="1" t="s">
+      <c r="AG67" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="AH67" s="1" t="s">
+      <c r="AH67" s="16" t="s">
         <v>163</v>
       </c>
-      <c r="AI67" s="11" t="s">
+      <c r="AI67" s="30" t="s">
         <v>164</v>
       </c>
-      <c r="AJ67" s="1" t="s">
+      <c r="AJ67" s="16" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="68" spans="1:36" ht="174" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="1" t="s">
+      <c r="A68" s="16" t="s">
         <v>620</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B68" s="16" t="s">
         <v>526</v>
       </c>
-      <c r="C68" s="19">
+      <c r="C68" s="21">
         <v>2006</v>
       </c>
-      <c r="D68" s="1" t="s">
+      <c r="D68" s="16" t="s">
         <v>527</v>
       </c>
-      <c r="E68" s="1" t="s">
+      <c r="E68" s="16" t="s">
         <v>528</v>
       </c>
-      <c r="G68" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="K68" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="L68" s="1" t="s">
+      <c r="G68" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="K68" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="L68" s="16" t="s">
         <v>529</v>
       </c>
-      <c r="N68" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="AC68" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="AD68" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="AF68" s="1" t="s">
+      <c r="N68" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="AC68" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="AD68" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="AF68" s="16" t="s">
         <v>530</v>
       </c>
-      <c r="AG68" s="1" t="s">
+      <c r="AG68" s="16" t="s">
         <v>531</v>
       </c>
-      <c r="AH68"/>
+      <c r="AH68" s="26"/>
     </row>
     <row r="69" spans="1:36" ht="223" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="1" t="s">
+      <c r="A69" s="16" t="s">
         <v>634</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="26" t="s">
         <v>432</v>
       </c>
-      <c r="C69" s="25">
+      <c r="C69" s="21">
         <v>2000</v>
       </c>
-      <c r="D69" s="1" t="s">
+      <c r="D69" s="16" t="s">
         <v>434</v>
       </c>
-      <c r="E69" s="1" t="s">
+      <c r="E69" s="16" t="s">
         <v>433</v>
       </c>
-      <c r="F69" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="AF69" s="1" t="s">
+      <c r="F69" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="G69" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="AF69" s="16" t="s">
         <v>435</v>
       </c>
-      <c r="AG69" s="1" t="s">
+      <c r="AG69" s="16" t="s">
         <v>436</v>
       </c>
-      <c r="AH69" s="1" t="s">
+      <c r="AH69" s="16" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="70" spans="1:36" s="22" customFormat="1" ht="210" x14ac:dyDescent="0.2">
-      <c r="A70" s="1" t="s">
+    <row r="70" spans="1:36" ht="210" x14ac:dyDescent="0.2">
+      <c r="A70" s="16" t="s">
         <v>670</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="B70" s="16" t="s">
         <v>671</v>
       </c>
-      <c r="C70" s="19">
+      <c r="C70" s="21">
         <v>2014</v>
       </c>
-      <c r="D70" s="1" t="s">
+      <c r="D70" s="16" t="s">
         <v>672</v>
       </c>
-      <c r="E70" s="1" t="s">
+      <c r="E70" s="16" t="s">
         <v>673</v>
       </c>
-      <c r="F70" s="1"/>
-      <c r="G70" s="1"/>
-      <c r="H70" s="1"/>
-      <c r="I70" s="1"/>
-      <c r="J70" s="1"/>
-      <c r="K70" s="1"/>
-      <c r="L70" s="1"/>
-      <c r="M70" s="1"/>
-      <c r="N70" s="1"/>
-      <c r="O70" s="1"/>
-      <c r="P70" s="1"/>
-      <c r="Q70" s="1"/>
-      <c r="R70" s="1"/>
-      <c r="S70" s="1"/>
-      <c r="T70" s="1"/>
-      <c r="U70" s="1"/>
-      <c r="V70" s="1"/>
-      <c r="W70" s="1"/>
-      <c r="X70" s="1"/>
-      <c r="Y70" s="1"/>
-      <c r="Z70" s="1"/>
-      <c r="AA70" s="1"/>
-      <c r="AB70" s="1"/>
-      <c r="AC70" s="1"/>
-      <c r="AD70" s="1"/>
-      <c r="AE70" s="1"/>
-      <c r="AF70" s="1" t="s">
+      <c r="AF70" s="16" t="s">
         <v>674</v>
       </c>
-      <c r="AG70" s="1" t="s">
+      <c r="AG70" s="16" t="s">
         <v>675</v>
       </c>
-      <c r="AH70" s="1"/>
-      <c r="AI70" s="1"/>
-      <c r="AJ70" s="1"/>
-    </row>
-    <row r="71" spans="1:36" s="22" customFormat="1" ht="210" x14ac:dyDescent="0.2">
-      <c r="A71" s="1" t="s">
+    </row>
+    <row r="71" spans="1:36" ht="210" x14ac:dyDescent="0.2">
+      <c r="A71" s="16" t="s">
         <v>670</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="26" t="s">
         <v>676</v>
       </c>
-      <c r="C71" s="25">
+      <c r="C71" s="21">
         <v>2014</v>
       </c>
-      <c r="D71" s="1" t="s">
+      <c r="D71" s="16" t="s">
         <v>677</v>
       </c>
-      <c r="E71" s="1" t="s">
+      <c r="E71" s="16" t="s">
         <v>673</v>
       </c>
-      <c r="F71" s="1"/>
-      <c r="G71" s="1"/>
-      <c r="H71" s="1"/>
-      <c r="I71" s="1"/>
-      <c r="J71" s="1"/>
-      <c r="K71" s="1"/>
-      <c r="L71" s="1"/>
-      <c r="M71" s="1"/>
-      <c r="N71" s="1"/>
-      <c r="O71" s="1"/>
-      <c r="P71" s="1"/>
-      <c r="Q71" s="1"/>
-      <c r="R71" s="1"/>
-      <c r="S71" s="1"/>
-      <c r="T71" s="1"/>
-      <c r="U71" s="1"/>
-      <c r="V71" s="1"/>
-      <c r="W71" s="1"/>
-      <c r="X71" s="1"/>
-      <c r="Y71" s="1"/>
-      <c r="Z71" s="1"/>
-      <c r="AA71" s="1"/>
-      <c r="AB71" s="1"/>
-      <c r="AC71" s="1"/>
-      <c r="AD71" s="1"/>
-      <c r="AE71" s="1"/>
-      <c r="AF71" s="1" t="s">
+      <c r="AF71" s="16" t="s">
         <v>678</v>
       </c>
-      <c r="AG71" s="1" t="s">
+      <c r="AG71" s="16" t="s">
         <v>679</v>
       </c>
-      <c r="AH71" s="1" t="s">
+      <c r="AH71" s="16" t="s">
         <v>680</v>
       </c>
-      <c r="AI71" s="1"/>
-      <c r="AJ71" s="1"/>
     </row>
     <row r="72" spans="1:36" ht="145" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="1" t="s">
+      <c r="A72" s="16" t="s">
         <v>670</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B72" s="16" t="s">
         <v>681</v>
       </c>
-      <c r="C72" s="25">
+      <c r="C72" s="21">
         <v>2013</v>
       </c>
-      <c r="D72" s="1" t="s">
+      <c r="D72" s="16" t="s">
         <v>682</v>
       </c>
-      <c r="E72" s="1" t="s">
+      <c r="E72" s="16" t="s">
         <v>683</v>
       </c>
-      <c r="AF72" s="1" t="s">
+      <c r="AF72" s="16" t="s">
         <v>684</v>
       </c>
-      <c r="AG72" s="1" t="s">
+      <c r="AG72" s="16" t="s">
         <v>685</v>
       </c>
-      <c r="AH72" s="1" t="s">
+      <c r="AH72" s="16" t="s">
         <v>686</v>
       </c>
     </row>
     <row r="73" spans="1:36" ht="186" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="1" t="s">
+      <c r="A73" s="16" t="s">
         <v>670</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B73" s="16" t="s">
         <v>687</v>
       </c>
-      <c r="C73" s="14">
+      <c r="C73" s="21">
         <v>2013</v>
       </c>
-      <c r="D73" s="1" t="s">
+      <c r="D73" s="16" t="s">
         <v>688</v>
       </c>
-      <c r="AG73" s="1" t="s">
+      <c r="AG73" s="16" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="74" spans="1:36" s="22" customFormat="1" ht="112" x14ac:dyDescent="0.2">
-      <c r="A74" s="1" t="s">
+    <row r="74" spans="1:36" ht="112" x14ac:dyDescent="0.2">
+      <c r="A74" s="16" t="s">
         <v>623</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="B74" s="16" t="s">
         <v>217</v>
       </c>
-      <c r="C74" s="19">
+      <c r="C74" s="21">
         <v>2015</v>
       </c>
-      <c r="D74" s="1" t="s">
+      <c r="D74" s="16" t="s">
         <v>218</v>
       </c>
-      <c r="E74" s="1" t="s">
+      <c r="E74" s="16" t="s">
         <v>219</v>
       </c>
-      <c r="F74" s="1"/>
-      <c r="G74" s="1"/>
-      <c r="H74" s="1"/>
-      <c r="I74" s="1"/>
-      <c r="J74" s="1"/>
-      <c r="K74" s="1"/>
-      <c r="L74" s="1"/>
-      <c r="M74" s="1"/>
-      <c r="N74" s="1"/>
-      <c r="O74" s="1"/>
-      <c r="P74" s="1"/>
-      <c r="Q74" s="1"/>
-      <c r="R74" s="1"/>
-      <c r="S74" s="1"/>
-      <c r="T74" s="1"/>
-      <c r="U74" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="V74" s="1"/>
-      <c r="W74" s="1"/>
-      <c r="X74" s="1" t="s">
+      <c r="U74" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="X74" s="16" t="s">
         <v>220</v>
       </c>
-      <c r="Y74" s="1"/>
-      <c r="Z74" s="1"/>
-      <c r="AA74" s="1" t="s">
+      <c r="AA74" s="16" t="s">
         <v>221</v>
       </c>
-      <c r="AB74" s="1"/>
-      <c r="AC74" s="1" t="s">
+      <c r="AC74" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="AD74" s="1" t="s">
+      <c r="AD74" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="AE74" s="1" t="s">
+      <c r="AE74" s="16" t="s">
         <v>222</v>
       </c>
-      <c r="AF74" s="1" t="s">
+      <c r="AF74" s="16" t="s">
         <v>223</v>
       </c>
-      <c r="AG74" s="1" t="s">
+      <c r="AG74" s="16" t="s">
         <v>218</v>
       </c>
-      <c r="AH74" s="1"/>
-      <c r="AI74" s="1"/>
-      <c r="AJ74" s="1"/>
     </row>
     <row r="75" spans="1:36" ht="98" x14ac:dyDescent="0.2">
-      <c r="A75" s="1" t="s">
+      <c r="A75" s="16" t="s">
         <v>623</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="B75" s="16" t="s">
         <v>472</v>
       </c>
-      <c r="C75" s="25">
+      <c r="C75" s="21">
         <v>2004</v>
       </c>
-      <c r="D75" s="1" t="s">
+      <c r="D75" s="16" t="s">
         <v>474</v>
       </c>
-      <c r="E75" s="1" t="s">
+      <c r="E75" s="16" t="s">
         <v>473</v>
       </c>
-      <c r="P75" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="R75" s="1" t="s">
+      <c r="P75" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="R75" s="16" t="s">
         <v>475</v>
       </c>
-      <c r="Y75" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="Z75" s="1" t="s">
+      <c r="Y75" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="Z75" s="16" t="s">
         <v>476</v>
       </c>
-      <c r="AA75" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="AB75" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="AE75" s="1" t="s">
+      <c r="AA75" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="AB75" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="AE75" s="16" t="s">
         <v>477</v>
       </c>
-      <c r="AF75" s="1" t="s">
+      <c r="AF75" s="16" t="s">
         <v>478</v>
       </c>
-      <c r="AG75" s="1" t="s">
+      <c r="AG75" s="16" t="s">
         <v>479</v>
       </c>
     </row>
     <row r="76" spans="1:36" ht="157" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="1" t="s">
+      <c r="A76" s="16" t="s">
         <v>623</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="B76" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="C76" s="14">
+      <c r="C76" s="21">
         <v>2015</v>
       </c>
-      <c r="D76" s="1" t="s">
+      <c r="D76" s="16" t="s">
         <v>656</v>
       </c>
-      <c r="E76" s="1" t="s">
+      <c r="E76" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="F76" s="1" t="s">
+      <c r="F76" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="G76" s="1" t="s">
+      <c r="G76" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="H76" s="1" t="s">
+      <c r="H76" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="AC76" s="1" t="s">
+      <c r="AC76" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="AE76" s="1" t="s">
+      <c r="AE76" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="AF76" s="1" t="s">
+      <c r="AF76" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="AG76" s="1" t="s">
+      <c r="AG76" s="16" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="77" spans="1:36" ht="152" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="15" t="s">
+      <c r="A77" s="24" t="s">
         <v>623</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="B77" s="16" t="s">
         <v>337</v>
       </c>
-      <c r="C77" s="14">
+      <c r="C77" s="21">
         <v>2007</v>
       </c>
-      <c r="D77" s="1" t="s">
+      <c r="D77" s="16" t="s">
         <v>338</v>
       </c>
-      <c r="E77" s="1" t="s">
+      <c r="E77" s="16" t="s">
         <v>339</v>
       </c>
-      <c r="R77" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="S77" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="U77" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="W77" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="X77" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="AB77" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="AD77" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="AE77" s="1" t="s">
+      <c r="R77" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="S77" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="U77" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="W77" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="X77" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="AB77" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="AD77" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="AE77" s="16" t="s">
         <v>340</v>
       </c>
-      <c r="AF77" s="1" t="s">
+      <c r="AF77" s="16" t="s">
         <v>341</v>
       </c>
-      <c r="AG77" s="15" t="s">
+      <c r="AG77" s="24" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="78" spans="1:36" s="22" customFormat="1" ht="126" x14ac:dyDescent="0.2">
-      <c r="A78" s="1" t="s">
+    <row r="78" spans="1:36" ht="126" x14ac:dyDescent="0.2">
+      <c r="A78" s="16" t="s">
         <v>630</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="26" t="s">
         <v>426</v>
       </c>
-      <c r="C78" s="25">
+      <c r="C78" s="21">
         <v>2000</v>
       </c>
-      <c r="D78" s="1" t="s">
+      <c r="D78" s="16" t="s">
         <v>427</v>
       </c>
-      <c r="E78" s="1" t="s">
+      <c r="E78" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="F78" s="1"/>
-      <c r="G78" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="H78" s="1"/>
-      <c r="I78" s="1"/>
-      <c r="J78" s="1"/>
-      <c r="K78" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="L78" s="1"/>
-      <c r="M78" s="1"/>
-      <c r="N78" s="1"/>
-      <c r="O78" s="1"/>
-      <c r="P78" s="1"/>
-      <c r="Q78" s="1"/>
-      <c r="R78" s="1"/>
-      <c r="S78" s="1"/>
-      <c r="T78" s="1" t="s">
+      <c r="G78" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="K78" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="T78" s="16" t="s">
         <v>429</v>
       </c>
-      <c r="U78" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="V78" s="1"/>
-      <c r="W78" s="1"/>
-      <c r="X78" s="1"/>
-      <c r="Y78" s="1"/>
-      <c r="Z78" s="1"/>
-      <c r="AA78" s="1"/>
-      <c r="AB78" s="1"/>
-      <c r="AC78" s="1"/>
-      <c r="AD78" s="1"/>
-      <c r="AE78" s="1"/>
-      <c r="AF78" s="1" t="s">
+      <c r="U78" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="AF78" s="16" t="s">
         <v>430</v>
       </c>
-      <c r="AG78" s="1" t="s">
+      <c r="AG78" s="16" t="s">
         <v>431</v>
       </c>
-      <c r="AH78" s="1"/>
-      <c r="AI78" s="1"/>
-      <c r="AJ78" s="1"/>
     </row>
     <row r="79" spans="1:36" ht="84" x14ac:dyDescent="0.2">
-      <c r="A79" s="1" t="s">
+      <c r="A79" s="16" t="s">
         <v>642</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="B79" s="16" t="s">
         <v>556</v>
       </c>
-      <c r="C79" s="29">
+      <c r="C79" s="21">
         <v>2011</v>
       </c>
-      <c r="D79" s="1" t="s">
+      <c r="D79" s="16" t="s">
         <v>558</v>
       </c>
-      <c r="E79" s="1" t="s">
+      <c r="E79" s="16" t="s">
         <v>559</v>
       </c>
-      <c r="AF79" s="28" t="s">
+      <c r="AF79" s="31" t="s">
         <v>557</v>
       </c>
     </row>
     <row r="80" spans="1:36" ht="152" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="1" t="s">
+      <c r="A80" s="16" t="s">
         <v>637</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="B80" s="16" t="s">
         <v>248</v>
       </c>
-      <c r="C80" s="19">
+      <c r="C80" s="21">
         <v>2016</v>
       </c>
-      <c r="D80" s="1" t="s">
+      <c r="D80" s="16" t="s">
         <v>249</v>
       </c>
-      <c r="E80" s="1" t="s">
+      <c r="E80" s="16" t="s">
         <v>251</v>
       </c>
-      <c r="P80" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="R80" s="1" t="s">
+      <c r="P80" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="R80" s="16" t="s">
         <v>252</v>
       </c>
-      <c r="S80" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="U80" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="W80" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="AA80" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="AD80" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="AE80" s="1" t="s">
+      <c r="S80" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="U80" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="W80" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="AA80" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="AD80" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="AE80" s="16" t="s">
         <v>254</v>
       </c>
-      <c r="AF80" s="1" t="s">
+      <c r="AF80" s="16" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="81" spans="1:36" s="22" customFormat="1" ht="103" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="1" t="s">
+    <row r="81" spans="1:36" ht="103" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="16" t="s">
         <v>637</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="26" t="s">
         <v>545</v>
       </c>
-      <c r="C81" s="19">
+      <c r="C81" s="21">
         <v>2008</v>
       </c>
-      <c r="D81" s="15" t="s">
+      <c r="D81" s="24" t="s">
         <v>546</v>
       </c>
-      <c r="E81" s="1" t="s">
+      <c r="E81" s="16" t="s">
         <v>547</v>
       </c>
-      <c r="F81" s="1"/>
-      <c r="G81" s="1"/>
-      <c r="H81" s="1"/>
-      <c r="I81" s="1"/>
-      <c r="J81" s="1"/>
-      <c r="K81" s="1"/>
-      <c r="L81" s="1"/>
-      <c r="M81" s="1"/>
-      <c r="N81" s="1"/>
-      <c r="O81" s="1"/>
-      <c r="P81" s="1"/>
-      <c r="Q81" s="1"/>
-      <c r="R81" s="1"/>
-      <c r="S81" s="1"/>
-      <c r="T81" s="1"/>
-      <c r="U81" s="1"/>
-      <c r="V81" s="1"/>
-      <c r="W81" s="1"/>
-      <c r="X81" s="1"/>
-      <c r="Y81" s="1"/>
-      <c r="Z81" s="1"/>
-      <c r="AA81" s="1"/>
-      <c r="AB81" s="1"/>
-      <c r="AC81" s="1"/>
-      <c r="AD81" s="1"/>
-      <c r="AE81" s="1"/>
-      <c r="AF81" s="1" t="s">
+      <c r="AF81" s="16" t="s">
         <v>548</v>
       </c>
-      <c r="AG81" s="1"/>
-      <c r="AH81" s="1"/>
-      <c r="AI81" s="1"/>
-      <c r="AJ81" s="1"/>
     </row>
     <row r="82" spans="1:36" ht="164" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="22" t="s">
+      <c r="A82" s="16" t="s">
         <v>637</v>
       </c>
-      <c r="B82" s="22" t="s">
+      <c r="B82" s="16" t="s">
         <v>375</v>
       </c>
-      <c r="C82" s="23">
+      <c r="C82" s="21">
         <v>1986</v>
       </c>
-      <c r="D82" s="22" t="s">
+      <c r="D82" s="16" t="s">
         <v>376</v>
       </c>
-      <c r="E82" s="22" t="s">
+      <c r="E82" s="16" t="s">
         <v>377</v>
       </c>
-      <c r="F82" s="22"/>
-      <c r="G82" s="22"/>
-      <c r="H82" s="22"/>
-      <c r="I82" s="22"/>
-      <c r="J82" s="22"/>
-      <c r="K82" s="22"/>
-      <c r="L82" s="22"/>
-      <c r="M82" s="22"/>
-      <c r="N82" s="22"/>
-      <c r="O82" s="22"/>
-      <c r="P82" s="22"/>
-      <c r="Q82" s="22"/>
-      <c r="R82" s="22"/>
-      <c r="S82" s="22"/>
-      <c r="T82" s="22"/>
-      <c r="U82" s="22"/>
-      <c r="V82" s="22"/>
-      <c r="W82" s="22"/>
-      <c r="X82" s="22"/>
-      <c r="Y82" s="22"/>
-      <c r="Z82" s="22"/>
-      <c r="AA82" s="22"/>
-      <c r="AB82" s="22"/>
-      <c r="AC82" s="22"/>
-      <c r="AD82" s="22"/>
-      <c r="AE82" s="22"/>
-      <c r="AF82" s="22"/>
-      <c r="AG82" s="22" t="s">
+      <c r="AG82" s="16" t="s">
         <v>378</v>
       </c>
-      <c r="AH82" s="22"/>
-      <c r="AI82" s="22"/>
-      <c r="AJ82" s="22"/>
-    </row>
-    <row r="83" spans="1:36" s="22" customFormat="1" ht="150" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="1" t="s">
+    </row>
+    <row r="83" spans="1:36" ht="150" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="16" t="s">
         <v>637</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="B83" s="16" t="s">
         <v>368</v>
       </c>
-      <c r="C83" s="25">
+      <c r="C83" s="21">
         <v>1986</v>
       </c>
-      <c r="D83" s="1" t="s">
+      <c r="D83" s="16" t="s">
         <v>369</v>
       </c>
-      <c r="E83" s="1" t="s">
+      <c r="E83" s="16" t="s">
         <v>370</v>
       </c>
-      <c r="F83" s="1"/>
-      <c r="G83" s="1"/>
-      <c r="H83" s="1"/>
-      <c r="I83" s="1"/>
-      <c r="J83" s="1"/>
-      <c r="K83" s="1"/>
-      <c r="L83" s="1"/>
-      <c r="M83" s="1"/>
-      <c r="N83" s="1"/>
-      <c r="O83" s="1"/>
-      <c r="P83" s="1"/>
-      <c r="Q83" s="1"/>
-      <c r="R83" s="1"/>
-      <c r="S83" s="1"/>
-      <c r="T83" s="1"/>
-      <c r="U83" s="1"/>
-      <c r="V83" s="1"/>
-      <c r="W83" s="1"/>
-      <c r="X83" s="1"/>
-      <c r="Y83" s="1"/>
-      <c r="Z83" s="1"/>
-      <c r="AA83" s="1"/>
-      <c r="AB83" s="1"/>
-      <c r="AC83" s="1"/>
-      <c r="AD83" s="1"/>
-      <c r="AE83" s="1"/>
-      <c r="AF83" s="1" t="s">
+      <c r="AF83" s="16" t="s">
         <v>371</v>
       </c>
-      <c r="AG83" s="1"/>
-      <c r="AH83" s="1"/>
-      <c r="AI83" s="1"/>
-      <c r="AJ83" s="1"/>
     </row>
     <row r="84" spans="1:36" ht="112" x14ac:dyDescent="0.2">
-      <c r="A84" s="15" t="s">
+      <c r="A84" s="24" t="s">
         <v>632</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="B84" s="16" t="s">
         <v>571</v>
       </c>
-      <c r="C84" s="25">
+      <c r="C84" s="21">
         <v>2013</v>
       </c>
-      <c r="D84" s="1" t="s">
+      <c r="D84" s="16" t="s">
         <v>572</v>
       </c>
-      <c r="E84" s="1" t="s">
+      <c r="E84" s="16" t="s">
         <v>576</v>
       </c>
-      <c r="F84" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="G84" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="H84" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="I84" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="J84" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="K84" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="L84" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="P84" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="AE84" s="1" t="s">
+      <c r="F84" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="G84" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="H84" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="I84" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="J84" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="K84" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="L84" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="P84" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="AE84" s="16" t="s">
         <v>574</v>
       </c>
-      <c r="AF84" s="1" t="s">
+      <c r="AF84" s="16" t="s">
         <v>573</v>
       </c>
-      <c r="AG84" s="15" t="s">
+      <c r="AG84" s="24" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="85" spans="1:36" s="22" customFormat="1" ht="193" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="1" t="s">
+    <row r="85" spans="1:36" ht="193" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="16" t="s">
         <v>632</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="B85" s="16" t="s">
         <v>181</v>
       </c>
-      <c r="C85" s="19">
+      <c r="C85" s="21">
         <v>2015</v>
       </c>
-      <c r="D85" s="1" t="s">
+      <c r="D85" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="E85" s="1" t="s">
+      <c r="E85" s="16" t="s">
         <v>183</v>
       </c>
-      <c r="F85" s="1"/>
-      <c r="G85" s="1"/>
-      <c r="H85" s="1"/>
-      <c r="I85" s="1"/>
-      <c r="J85" s="1"/>
-      <c r="K85" s="1"/>
-      <c r="L85" s="1"/>
-      <c r="M85" s="1"/>
-      <c r="N85" s="1"/>
-      <c r="O85" s="1"/>
-      <c r="P85" s="1"/>
-      <c r="Q85" s="1"/>
-      <c r="R85" s="1"/>
-      <c r="S85" s="1"/>
-      <c r="T85" s="1"/>
-      <c r="U85" s="1"/>
-      <c r="V85" s="1"/>
-      <c r="W85" s="1"/>
-      <c r="X85" s="1"/>
-      <c r="Y85" s="1"/>
-      <c r="Z85" s="1"/>
-      <c r="AA85" s="1"/>
-      <c r="AB85" s="1"/>
-      <c r="AC85" s="1"/>
-      <c r="AD85" s="1"/>
-      <c r="AE85" s="1" t="s">
+      <c r="AE85" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="AF85" s="1" t="s">
+      <c r="AF85" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="AG85" s="1" t="s">
+      <c r="AG85" s="16" t="s">
         <v>185</v>
       </c>
-      <c r="AH85" s="1"/>
-      <c r="AI85" s="1"/>
-      <c r="AJ85" s="1"/>
-    </row>
-    <row r="86" spans="1:36" s="22" customFormat="1" ht="182" x14ac:dyDescent="0.2">
-      <c r="A86" s="1" t="s">
+    </row>
+    <row r="86" spans="1:36" ht="182" x14ac:dyDescent="0.2">
+      <c r="A86" s="16" t="s">
         <v>632</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="B86" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C86" s="25">
+      <c r="C86" s="21">
         <v>2014</v>
       </c>
-      <c r="D86" s="1" t="s">
+      <c r="D86" s="16" t="s">
         <v>605</v>
       </c>
-      <c r="E86" s="1"/>
-      <c r="F86" s="1"/>
-      <c r="G86" s="1"/>
-      <c r="H86" s="1"/>
-      <c r="I86" s="1"/>
-      <c r="J86" s="1"/>
-      <c r="K86" s="1"/>
-      <c r="L86" s="1"/>
-      <c r="M86" s="1"/>
-      <c r="N86" s="1"/>
-      <c r="O86" s="1"/>
-      <c r="P86" s="1"/>
-      <c r="Q86" s="1"/>
-      <c r="R86" s="1"/>
-      <c r="S86" s="1"/>
-      <c r="T86" s="1"/>
-      <c r="U86" s="1"/>
-      <c r="V86" s="1"/>
-      <c r="W86" s="1"/>
-      <c r="X86" s="1"/>
-      <c r="Y86" s="1"/>
-      <c r="Z86" s="1"/>
-      <c r="AA86" s="1"/>
-      <c r="AB86" s="1"/>
-      <c r="AC86" s="1"/>
-      <c r="AD86" s="1"/>
-      <c r="AE86" s="1"/>
-      <c r="AF86" s="1"/>
-      <c r="AG86" s="1" t="s">
+      <c r="AG86" s="16" t="s">
         <v>658</v>
       </c>
-      <c r="AH86" s="1" t="s">
+      <c r="AH86" s="16" t="s">
         <v>604</v>
       </c>
-      <c r="AI86" s="1"/>
-      <c r="AJ86" s="1"/>
     </row>
     <row r="87" spans="1:36" ht="112" x14ac:dyDescent="0.2">
-      <c r="A87" s="1" t="s">
+      <c r="A87" s="16" t="s">
         <v>632</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="B87" s="16" t="s">
         <v>541</v>
       </c>
-      <c r="C87" s="25">
+      <c r="C87" s="21">
         <v>2007</v>
       </c>
-      <c r="D87" s="1" t="s">
+      <c r="D87" s="16" t="s">
         <v>542</v>
       </c>
-      <c r="E87" s="1" t="s">
+      <c r="E87" s="16" t="s">
         <v>544</v>
       </c>
-      <c r="P87" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="R87" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="S87" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="T87" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="U87" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="W87" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="Y87" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="Z87" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="AA87" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="AB87" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="AC87" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="AD87" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="AE87" s="1" t="s">
+      <c r="P87" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="R87" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="S87" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="T87" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="U87" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="W87" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="Y87" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="Z87" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="AA87" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="AB87" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="AC87" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="AD87" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="AE87" s="16" t="s">
         <v>254</v>
       </c>
-      <c r="AG87" s="1" t="s">
+      <c r="AG87" s="16" t="s">
         <v>543</v>
       </c>
     </row>
     <row r="88" spans="1:36" ht="154" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="1" t="s">
+      <c r="A88" s="16" t="s">
         <v>649</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="B88" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C88" s="14">
+      <c r="C88" s="21">
         <v>2015</v>
       </c>
-      <c r="D88" s="1" t="s">
+      <c r="D88" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="F88" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G88" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H88" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I88" s="2"/>
-      <c r="J88" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K88" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L88" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="M88" s="2"/>
-      <c r="N88" s="2"/>
-      <c r="O88" s="2"/>
-      <c r="P88" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q88" s="2"/>
-      <c r="R88" s="2"/>
-      <c r="S88" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="T88" s="2"/>
-      <c r="U88" s="2"/>
-      <c r="V88" s="2"/>
-      <c r="W88" s="2"/>
-      <c r="X88" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y88" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z88" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA88" s="2"/>
-      <c r="AB88" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AC88" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD88" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="AE88" s="1" t="s">
+      <c r="F88" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="G88" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="H88" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="I88" s="32"/>
+      <c r="J88" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="K88" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="L88" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="M88" s="32"/>
+      <c r="N88" s="32"/>
+      <c r="O88" s="32"/>
+      <c r="P88" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q88" s="32"/>
+      <c r="R88" s="32"/>
+      <c r="S88" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="T88" s="32"/>
+      <c r="U88" s="32"/>
+      <c r="V88" s="32"/>
+      <c r="W88" s="32"/>
+      <c r="X88" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y88" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z88" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA88" s="32"/>
+      <c r="AB88" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC88" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD88" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE88" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="AF88" s="1" t="s">
+      <c r="AF88" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="AG88" s="1" t="s">
+      <c r="AG88" s="16" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="89" spans="1:36" ht="178" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="1" t="s">
+      <c r="A89" s="16" t="s">
         <v>664</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="B89" s="16" t="s">
         <v>224</v>
       </c>
-      <c r="C89" s="14">
+      <c r="C89" s="21">
         <v>2015</v>
       </c>
-      <c r="D89" s="1" t="s">
+      <c r="D89" s="16" t="s">
         <v>225</v>
       </c>
-      <c r="E89" s="1" t="s">
+      <c r="E89" s="16" t="s">
         <v>226</v>
       </c>
-      <c r="AF89" s="1" t="s">
+      <c r="AF89" s="16" t="s">
         <v>227</v>
       </c>
-      <c r="AG89" s="1" t="s">
+      <c r="AG89" s="16" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="90" spans="1:36" s="22" customFormat="1" ht="42" x14ac:dyDescent="0.2">
-      <c r="A90" s="1" t="s">
+    <row r="90" spans="1:36" ht="42" x14ac:dyDescent="0.2">
+      <c r="A90" s="16" t="s">
         <v>664</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="B90" s="16" t="s">
         <v>443</v>
       </c>
-      <c r="C90" s="29">
+      <c r="C90" s="21">
         <v>2002</v>
       </c>
-      <c r="D90" s="1" t="s">
+      <c r="D90" s="16" t="s">
         <v>244</v>
       </c>
-      <c r="E90" s="1"/>
-      <c r="F90" s="1"/>
-      <c r="G90" s="1"/>
-      <c r="H90" s="1"/>
-      <c r="I90" s="1"/>
-      <c r="J90" s="1"/>
-      <c r="K90" s="1"/>
-      <c r="L90" s="1"/>
-      <c r="M90" s="1"/>
-      <c r="N90" s="1"/>
-      <c r="O90" s="1"/>
-      <c r="P90" s="1"/>
-      <c r="Q90" s="1"/>
-      <c r="R90" s="1"/>
-      <c r="S90" s="1"/>
-      <c r="T90" s="1"/>
-      <c r="U90" s="1"/>
-      <c r="V90" s="1"/>
-      <c r="W90" s="1"/>
-      <c r="X90" s="1"/>
-      <c r="Y90" s="1"/>
-      <c r="Z90" s="1"/>
-      <c r="AA90" s="1"/>
-      <c r="AB90" s="1"/>
-      <c r="AC90" s="1"/>
-      <c r="AD90" s="1"/>
-      <c r="AE90" s="1"/>
-      <c r="AF90" s="1"/>
-      <c r="AG90" s="1" t="s">
+      <c r="AG90" s="16" t="s">
         <v>444</v>
       </c>
-      <c r="AH90" s="1"/>
-      <c r="AI90" s="1"/>
-      <c r="AJ90" s="1"/>
-    </row>
-    <row r="91" spans="1:36" s="22" customFormat="1" ht="189" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="1" t="s">
+    </row>
+    <row r="91" spans="1:36" ht="189" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="16" t="s">
         <v>638</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="B91" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="C91" s="29">
+      <c r="C91" s="21">
         <v>2002</v>
       </c>
-      <c r="D91" s="1" t="s">
+      <c r="D91" s="16" t="s">
         <v>450</v>
       </c>
-      <c r="E91" s="1" t="s">
+      <c r="E91" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="F91" s="1"/>
-      <c r="G91" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H91" s="1"/>
-      <c r="I91" s="1"/>
-      <c r="J91" s="1"/>
-      <c r="K91" s="1"/>
-      <c r="L91" s="1"/>
-      <c r="M91" s="1"/>
-      <c r="N91" s="1"/>
-      <c r="O91" s="1"/>
-      <c r="P91" s="1">
+      <c r="G91" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="P91" s="16">
         <v>0.25416666666666665</v>
       </c>
-      <c r="Q91" s="1"/>
-      <c r="R91" s="1"/>
-      <c r="S91" s="1"/>
-      <c r="T91" s="1"/>
-      <c r="U91" s="1"/>
-      <c r="V91" s="1"/>
-      <c r="W91" s="1"/>
-      <c r="X91" s="1"/>
-      <c r="Y91" s="1"/>
-      <c r="Z91" s="1" t="s">
+      <c r="Z91" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="AA91" s="1"/>
-      <c r="AB91" s="1"/>
-      <c r="AC91" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD91" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AE91" s="1" t="s">
+      <c r="AC91" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD91" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE91" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="AF91" s="1" t="s">
+      <c r="AF91" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="AG91" s="1" t="s">
+      <c r="AG91" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="AH91" s="1" t="s">
+      <c r="AH91" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="AI91" s="1"/>
-      <c r="AJ91" s="1"/>
-    </row>
-    <row r="92" spans="1:36" s="22" customFormat="1" ht="252" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="1" t="s">
+    </row>
+    <row r="92" spans="1:36" ht="252" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="16" t="s">
         <v>651</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="B92" s="16" t="s">
         <v>308</v>
       </c>
-      <c r="C92" s="19" t="s">
+      <c r="C92" s="21" t="s">
         <v>276</v>
       </c>
-      <c r="D92" s="15" t="s">
+      <c r="D92" s="24" t="s">
         <v>309</v>
       </c>
-      <c r="E92" s="1" t="s">
+      <c r="E92" s="16" t="s">
         <v>310</v>
       </c>
-      <c r="F92" s="1"/>
-      <c r="G92" s="1"/>
-      <c r="H92" s="1"/>
-      <c r="I92" s="1"/>
-      <c r="J92" s="1"/>
-      <c r="K92" s="1"/>
-      <c r="L92" s="1"/>
-      <c r="M92" s="1"/>
-      <c r="N92" s="1"/>
-      <c r="O92" s="1"/>
-      <c r="P92" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="Q92" s="1"/>
-      <c r="R92" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="S92" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="T92" s="1"/>
-      <c r="U92" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="V92" s="1"/>
-      <c r="W92" s="1"/>
-      <c r="X92" s="1"/>
-      <c r="Y92" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="Z92" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="AA92" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="AB92" s="1"/>
-      <c r="AC92" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="AD92" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="AE92" s="1" t="s">
+      <c r="P92" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="R92" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="S92" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="U92" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="Y92" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="Z92" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="AA92" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="AC92" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="AD92" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="AE92" s="16" t="s">
         <v>311</v>
       </c>
-      <c r="AF92" s="1" t="s">
+      <c r="AF92" s="16" t="s">
         <v>312</v>
       </c>
-      <c r="AG92" s="1" t="s">
+      <c r="AG92" s="16" t="s">
         <v>313</v>
       </c>
-      <c r="AH92" s="1"/>
-      <c r="AI92" s="1"/>
-      <c r="AJ92" s="1"/>
-    </row>
-    <row r="93" spans="1:36" s="22" customFormat="1" ht="196" x14ac:dyDescent="0.2">
-      <c r="A93" s="12" t="s">
+    </row>
+    <row r="93" spans="1:36" ht="196" x14ac:dyDescent="0.2">
+      <c r="A93" s="25" t="s">
         <v>645</v>
       </c>
-      <c r="B93" s="12" t="s">
+      <c r="B93" s="25" t="s">
         <v>195</v>
       </c>
-      <c r="C93" s="13">
+      <c r="C93" s="28">
         <v>2002</v>
       </c>
-      <c r="D93" s="12" t="s">
+      <c r="D93" s="25" t="s">
         <v>196</v>
       </c>
-      <c r="E93" s="12" t="s">
+      <c r="E93" s="25" t="s">
         <v>197</v>
       </c>
-      <c r="F93" s="12"/>
-      <c r="G93" s="12"/>
-      <c r="H93" s="12"/>
-      <c r="I93" s="12"/>
-      <c r="J93" s="12"/>
-      <c r="K93" s="12"/>
-      <c r="L93" s="12"/>
-      <c r="M93" s="12"/>
-      <c r="N93" s="12"/>
-      <c r="O93" s="12"/>
-      <c r="P93" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q93" s="12"/>
-      <c r="R93" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="S93" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="T93" s="12"/>
-      <c r="U93" s="12"/>
-      <c r="V93" s="12"/>
-      <c r="W93" s="12" t="s">
+      <c r="F93" s="25"/>
+      <c r="G93" s="25"/>
+      <c r="H93" s="25"/>
+      <c r="I93" s="25"/>
+      <c r="J93" s="25"/>
+      <c r="K93" s="25"/>
+      <c r="L93" s="25"/>
+      <c r="M93" s="25"/>
+      <c r="N93" s="25"/>
+      <c r="O93" s="25"/>
+      <c r="P93" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q93" s="25"/>
+      <c r="R93" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="S93" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="T93" s="25"/>
+      <c r="U93" s="25"/>
+      <c r="V93" s="25"/>
+      <c r="W93" s="25" t="s">
         <v>198</v>
       </c>
-      <c r="X93" s="12"/>
-      <c r="Y93" s="12"/>
-      <c r="Z93" s="12"/>
-      <c r="AA93" s="12"/>
-      <c r="AB93" s="12"/>
-      <c r="AC93" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD93" s="12"/>
-      <c r="AE93" s="12" t="s">
+      <c r="X93" s="25"/>
+      <c r="Y93" s="25"/>
+      <c r="Z93" s="25"/>
+      <c r="AA93" s="25"/>
+      <c r="AB93" s="25"/>
+      <c r="AC93" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD93" s="25"/>
+      <c r="AE93" s="25" t="s">
         <v>199</v>
       </c>
-      <c r="AF93" s="12" t="s">
+      <c r="AF93" s="25" t="s">
         <v>200</v>
       </c>
-      <c r="AG93" s="12" t="s">
+      <c r="AG93" s="25" t="s">
         <v>201</v>
       </c>
-      <c r="AH93" s="1"/>
-      <c r="AI93" s="1"/>
-      <c r="AJ93" s="1"/>
-    </row>
-    <row r="94" spans="1:36" s="22" customFormat="1" ht="70" x14ac:dyDescent="0.2">
+    </row>
+    <row r="94" spans="1:36" ht="70" x14ac:dyDescent="0.2">
       <c r="A94" s="24" t="s">
         <v>648</v>
       </c>
-      <c r="B94" s="22" t="s">
+      <c r="B94" s="16" t="s">
         <v>379</v>
       </c>
-      <c r="C94" s="23">
+      <c r="C94" s="21">
         <v>1986</v>
       </c>
-      <c r="D94" s="22" t="s">
+      <c r="D94" s="16" t="s">
         <v>380</v>
       </c>
-      <c r="AF94" s="22" t="s">
+      <c r="AF94" s="16" t="s">
         <v>381</v>
       </c>
       <c r="AG94" s="24" t="s">
@@ -6798,1549 +5919,876 @@
       </c>
     </row>
     <row r="95" spans="1:36" ht="168" x14ac:dyDescent="0.2">
-      <c r="A95" s="1" t="s">
+      <c r="A95" s="16" t="s">
         <v>648</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="B95" s="16" t="s">
         <v>344</v>
       </c>
-      <c r="C95" s="25">
+      <c r="C95" s="21">
         <v>2000</v>
       </c>
-      <c r="D95" s="1" t="s">
+      <c r="D95" s="16" t="s">
         <v>348</v>
       </c>
-      <c r="E95" s="1" t="s">
+      <c r="E95" s="16" t="s">
         <v>345</v>
       </c>
-      <c r="G95" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="J95" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="K95" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="P95" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="S95" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="AA95" s="1" t="s">
+      <c r="G95" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="J95" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="K95" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="P95" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="S95" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="AA95" s="16" t="s">
         <v>346</v>
       </c>
-      <c r="AC95" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD95" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AE95" s="1" t="s">
+      <c r="AC95" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD95" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE95" s="16" t="s">
         <v>347</v>
       </c>
-      <c r="AF95" s="1" t="s">
+      <c r="AF95" s="16" t="s">
         <v>352</v>
       </c>
-      <c r="AG95" s="1" t="s">
+      <c r="AG95" s="16" t="s">
         <v>351</v>
       </c>
-      <c r="AH95" s="1" t="s">
+      <c r="AH95" s="16" t="s">
         <v>349</v>
       </c>
-      <c r="AI95" s="1" t="s">
+      <c r="AI95" s="16" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="96" spans="1:36" ht="182" x14ac:dyDescent="0.2">
-      <c r="A96" s="1" t="s">
+      <c r="A96" s="16" t="s">
         <v>622</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="B96" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="C96" s="19">
+      <c r="C96" s="21">
         <v>2016</v>
       </c>
-      <c r="D96" s="1" t="s">
+      <c r="D96" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="E96" s="1" t="s">
+      <c r="E96" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="F96" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G96" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J96" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K96" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AC96" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD96" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AE96" s="1" t="s">
+      <c r="F96" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G96" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="J96" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="K96" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC96" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD96" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE96" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="AF96" s="1" t="s">
+      <c r="AF96" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="AG96" s="1" t="s">
+      <c r="AG96" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="AH96" s="1" t="s">
+      <c r="AH96" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="AI96" s="1" t="s">
+      <c r="AI96" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="AJ96" s="1" t="s">
+      <c r="AJ96" s="16" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="97" spans="1:36" ht="224" x14ac:dyDescent="0.2">
-      <c r="A97" s="1" t="s">
+      <c r="A97" s="16" t="s">
         <v>622</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="B97" s="16" t="s">
         <v>255</v>
       </c>
-      <c r="C97" s="14">
+      <c r="C97" s="21">
         <v>2009</v>
       </c>
-      <c r="D97" s="1" t="s">
+      <c r="D97" s="16" t="s">
         <v>264</v>
       </c>
-      <c r="E97" s="1" t="s">
+      <c r="E97" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="P97" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="R97" s="1" t="s">
+      <c r="P97" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="R97" s="16" t="s">
         <v>265</v>
       </c>
-      <c r="S97" s="1" t="s">
+      <c r="S97" s="16" t="s">
         <v>266</v>
       </c>
-      <c r="U97" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="Y97" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="Z97" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="AA97" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="AC97" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="AD97" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="AE97" s="1" t="s">
+      <c r="U97" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="Y97" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="Z97" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="AA97" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="AC97" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="AD97" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="AE97" s="16" t="s">
         <v>267</v>
       </c>
-      <c r="AF97" s="1" t="s">
+      <c r="AF97" s="16" t="s">
         <v>268</v>
       </c>
-      <c r="AG97" s="1" t="s">
+      <c r="AG97" s="16" t="s">
         <v>263</v>
       </c>
-      <c r="AH97" s="15" t="s">
+      <c r="AH97" s="24" t="s">
         <v>262</v>
       </c>
-      <c r="AI97" s="15" t="s">
+      <c r="AI97" s="24" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="98" spans="1:36" ht="98" x14ac:dyDescent="0.2">
-      <c r="A98" s="1" t="s">
+      <c r="A98" s="16" t="s">
         <v>622</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="B98" s="16" t="s">
         <v>275</v>
       </c>
-      <c r="C98" s="29" t="s">
+      <c r="C98" s="21" t="s">
         <v>276</v>
       </c>
-      <c r="D98" s="1" t="s">
+      <c r="D98" s="16" t="s">
         <v>244</v>
       </c>
-      <c r="E98" s="1" t="s">
+      <c r="E98" s="16" t="s">
         <v>245</v>
       </c>
-      <c r="AG98" s="1" t="s">
+      <c r="AG98" s="16" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="99" spans="1:36" s="22" customFormat="1" ht="224" x14ac:dyDescent="0.2">
-      <c r="A99" s="1" t="s">
+    <row r="99" spans="1:36" ht="224" x14ac:dyDescent="0.2">
+      <c r="A99" s="16" t="s">
         <v>622</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="B99" s="16" t="s">
         <v>275</v>
       </c>
-      <c r="C99" s="25" t="s">
+      <c r="C99" s="21" t="s">
         <v>282</v>
       </c>
-      <c r="D99" s="1" t="s">
+      <c r="D99" s="16" t="s">
         <v>284</v>
       </c>
-      <c r="E99" s="1" t="s">
+      <c r="E99" s="16" t="s">
         <v>289</v>
       </c>
-      <c r="F99" s="1"/>
-      <c r="G99" s="1"/>
-      <c r="H99" s="1"/>
-      <c r="I99" s="1"/>
-      <c r="J99" s="1"/>
-      <c r="K99" s="1"/>
-      <c r="L99" s="1"/>
-      <c r="M99" s="1"/>
-      <c r="N99" s="1"/>
-      <c r="O99" s="1"/>
-      <c r="P99" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="Q99" s="1"/>
-      <c r="R99" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="S99" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="T99" s="1"/>
-      <c r="U99" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="V99" s="1"/>
-      <c r="W99" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="X99" s="1"/>
-      <c r="Y99" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="Z99" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="AA99" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="AB99" s="1"/>
-      <c r="AC99" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="AD99" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="AE99" s="1" t="s">
+      <c r="P99" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="R99" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="S99" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="U99" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="W99" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="Y99" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="Z99" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="AA99" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="AC99" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="AD99" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="AE99" s="16" t="s">
         <v>290</v>
       </c>
-      <c r="AF99" s="1" t="s">
+      <c r="AF99" s="16" t="s">
         <v>286</v>
       </c>
-      <c r="AG99" s="1" t="s">
+      <c r="AG99" s="16" t="s">
         <v>287</v>
       </c>
-      <c r="AH99" s="15" t="s">
+      <c r="AH99" s="24" t="s">
         <v>285</v>
       </c>
-      <c r="AI99" s="1"/>
-      <c r="AJ99" s="1"/>
-    </row>
-    <row r="100" spans="1:36" s="22" customFormat="1" ht="168" x14ac:dyDescent="0.2">
-      <c r="A100" s="1" t="s">
+    </row>
+    <row r="100" spans="1:36" ht="168" x14ac:dyDescent="0.2">
+      <c r="A100" s="16" t="s">
         <v>622</v>
       </c>
-      <c r="B100" s="1" t="s">
+      <c r="B100" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="C100" s="19">
+      <c r="C100" s="21">
         <v>2016</v>
       </c>
-      <c r="D100" s="1" t="s">
+      <c r="D100" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="E100" s="1" t="s">
+      <c r="E100" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="F100" s="1"/>
-      <c r="G100" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H100" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I100" s="1"/>
-      <c r="J100" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K100" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L100" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M100" s="1"/>
-      <c r="N100" s="1"/>
-      <c r="O100" s="1"/>
-      <c r="P100" s="1"/>
-      <c r="Q100" s="1"/>
-      <c r="R100" s="1"/>
-      <c r="S100" s="1"/>
-      <c r="T100" s="1"/>
-      <c r="U100" s="1"/>
-      <c r="V100" s="1"/>
-      <c r="W100" s="1"/>
-      <c r="X100" s="1"/>
-      <c r="Y100" s="1"/>
-      <c r="Z100" s="1"/>
-      <c r="AA100" s="1"/>
-      <c r="AB100" s="1"/>
-      <c r="AC100" s="1"/>
-      <c r="AD100" s="1"/>
-      <c r="AE100" s="1" t="s">
+      <c r="G100" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H100" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="J100" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="K100" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="L100" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE100" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="AF100" s="1" t="s">
+      <c r="AF100" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="AG100" s="1" t="s">
+      <c r="AG100" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="AH100" s="1" t="s">
+      <c r="AH100" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="AI100" s="1"/>
-      <c r="AJ100" s="1"/>
     </row>
     <row r="101" spans="1:36" ht="233" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="1" t="s">
+      <c r="A101" s="16" t="s">
         <v>627</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B101" s="26" t="s">
         <v>593</v>
       </c>
-      <c r="C101" s="14">
+      <c r="C101" s="21">
         <v>2013</v>
       </c>
-      <c r="D101" s="1" t="s">
+      <c r="D101" s="16" t="s">
         <v>587</v>
       </c>
-      <c r="E101" s="1" t="s">
+      <c r="E101" s="16" t="s">
         <v>588</v>
       </c>
-      <c r="AF101" s="1" t="s">
+      <c r="AF101" s="16" t="s">
         <v>589</v>
       </c>
-      <c r="AG101" s="1" t="s">
+      <c r="AG101" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="AH101" s="1" t="s">
+      <c r="AH101" s="16" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="102" spans="1:36" ht="84" x14ac:dyDescent="0.2">
-      <c r="A102" s="8" t="s">
+      <c r="A102" s="22" t="s">
         <v>627</v>
       </c>
-      <c r="B102" s="8" t="s">
+      <c r="B102" s="22" t="s">
         <v>105</v>
       </c>
-      <c r="C102" s="9">
+      <c r="C102" s="33">
         <v>2007</v>
       </c>
-      <c r="D102" s="8" t="s">
+      <c r="D102" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="E102" s="8" t="s">
+      <c r="E102" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="F102" s="8"/>
-      <c r="G102" s="8"/>
-      <c r="H102" s="8"/>
-      <c r="I102" s="8"/>
-      <c r="J102" s="8"/>
-      <c r="K102" s="8"/>
-      <c r="L102" s="8"/>
-      <c r="M102" s="8"/>
-      <c r="N102" s="8"/>
-      <c r="O102" s="8"/>
-      <c r="P102" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R102" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S102" s="8"/>
-      <c r="T102" s="8"/>
-      <c r="U102" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="V102" s="8"/>
-      <c r="W102" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="X102" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y102" s="8" t="s">
+      <c r="F102" s="22"/>
+      <c r="G102" s="22"/>
+      <c r="H102" s="22"/>
+      <c r="I102" s="22"/>
+      <c r="J102" s="22"/>
+      <c r="K102" s="22"/>
+      <c r="L102" s="22"/>
+      <c r="M102" s="22"/>
+      <c r="N102" s="22"/>
+      <c r="O102" s="22"/>
+      <c r="P102" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="R102" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="S102" s="22"/>
+      <c r="T102" s="22"/>
+      <c r="U102" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="V102" s="22"/>
+      <c r="W102" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="X102" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y102" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="Z102" s="8" t="s">
+      <c r="Z102" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="AA102" s="8" t="s">
+      <c r="AA102" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="AB102" s="8" t="s">
+      <c r="AB102" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="AC102" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD102" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AE102" s="8" t="s">
+      <c r="AC102" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD102" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE102" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="AF102" s="8" t="s">
+      <c r="AF102" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="AG102" s="8" t="s">
+      <c r="AG102" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="AH102" s="8"/>
-      <c r="AI102" s="8"/>
-      <c r="AJ102" s="8"/>
+      <c r="AH102" s="22"/>
+      <c r="AI102" s="22"/>
+      <c r="AJ102" s="22"/>
     </row>
     <row r="103" spans="1:36" ht="137" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="1" t="s">
+      <c r="A103" s="16" t="s">
         <v>627</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B103" s="26" t="s">
         <v>610</v>
       </c>
-      <c r="C103" s="29">
+      <c r="C103" s="21">
         <v>2015</v>
       </c>
-      <c r="D103" s="1" t="s">
+      <c r="D103" s="16" t="s">
         <v>668</v>
       </c>
-      <c r="E103" s="1" t="s">
+      <c r="E103" s="16" t="s">
         <v>611</v>
       </c>
     </row>
     <row r="104" spans="1:36" ht="150" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="1" t="s">
+      <c r="A104" s="16" t="s">
         <v>627</v>
       </c>
-      <c r="B104" s="1" t="s">
+      <c r="B104" s="16" t="s">
         <v>288</v>
       </c>
-      <c r="C104" s="29" t="s">
+      <c r="C104" s="21" t="s">
         <v>276</v>
       </c>
-      <c r="D104" s="1" t="s">
+      <c r="D104" s="16" t="s">
         <v>291</v>
       </c>
-      <c r="E104" s="1" t="s">
+      <c r="E104" s="16" t="s">
         <v>289</v>
       </c>
-      <c r="P104" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="R104" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="S104" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="U104" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="Y104" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="Z104" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="AA104" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="AC104" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="AD104" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="AE104" s="1" t="s">
+      <c r="P104" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="R104" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="S104" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="U104" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="Y104" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="Z104" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="AA104" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="AC104" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="AD104" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="AE104" s="16" t="s">
         <v>290</v>
       </c>
-      <c r="AF104" s="1" t="s">
+      <c r="AF104" s="16" t="s">
         <v>293</v>
       </c>
-      <c r="AG104" s="1" t="s">
+      <c r="AG104" s="16" t="s">
         <v>294</v>
       </c>
-      <c r="AH104" s="1" t="s">
+      <c r="AH104" s="16" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="105" spans="1:36" ht="316" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="1" t="s">
+      <c r="A105" s="16" t="s">
         <v>653</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B105" s="26" t="s">
         <v>517</v>
       </c>
-      <c r="C105" s="29">
+      <c r="C105" s="21">
         <v>2006</v>
       </c>
-      <c r="D105" s="1" t="s">
+      <c r="D105" s="16" t="s">
         <v>518</v>
       </c>
-      <c r="E105" s="1" t="s">
+      <c r="E105" s="16" t="s">
         <v>519</v>
       </c>
-      <c r="R105" s="1" t="s">
+      <c r="R105" s="16" t="s">
         <v>521</v>
       </c>
-      <c r="Y105" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="Z105" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="AA105" s="1" t="s">
+      <c r="Y105" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="Z105" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="AA105" s="16" t="s">
         <v>520</v>
       </c>
-      <c r="AF105" s="1" t="s">
+      <c r="AF105" s="16" t="s">
         <v>524</v>
       </c>
-      <c r="AG105" s="1" t="s">
+      <c r="AG105" s="16" t="s">
         <v>525</v>
       </c>
-      <c r="AH105" s="15" t="s">
+      <c r="AH105" s="24" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="106" spans="1:36" s="22" customFormat="1" ht="140" x14ac:dyDescent="0.2">
-      <c r="A106" s="1" t="s">
+    <row r="106" spans="1:36" ht="140" x14ac:dyDescent="0.2">
+      <c r="A106" s="16" t="s">
         <v>652</v>
       </c>
-      <c r="B106" s="1" t="s">
+      <c r="B106" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="C106" s="29">
+      <c r="C106" s="21">
         <v>2015</v>
       </c>
-      <c r="D106" s="1" t="s">
+      <c r="D106" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="E106" s="1" t="s">
+      <c r="E106" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="F106" s="1" t="s">
+      <c r="F106" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="G106" s="1" t="s">
+      <c r="G106" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="H106" s="1" t="s">
+      <c r="H106" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="I106" s="1"/>
-      <c r="J106" s="1" t="s">
+      <c r="J106" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="K106" s="1"/>
-      <c r="L106" s="1" t="s">
+      <c r="L106" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="M106" s="1"/>
-      <c r="N106" s="1"/>
-      <c r="O106" s="1"/>
-      <c r="P106" s="1" t="s">
+      <c r="P106" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="Q106" s="1"/>
-      <c r="R106" s="1" t="s">
+      <c r="R106" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="S106" s="1" t="s">
+      <c r="S106" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="T106" s="1"/>
-      <c r="U106" s="1" t="s">
+      <c r="U106" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="V106" s="1" t="s">
+      <c r="V106" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="W106" s="1" t="s">
+      <c r="W106" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="X106" s="1"/>
-      <c r="Y106" s="1"/>
-      <c r="Z106" s="1"/>
-      <c r="AA106" s="1"/>
-      <c r="AB106" s="1"/>
-      <c r="AC106" s="1" t="s">
+      <c r="AC106" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="AD106" s="1"/>
-      <c r="AE106" s="1" t="s">
+      <c r="AE106" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AF106" s="1" t="s">
+      <c r="AF106" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AG106" s="1" t="s">
+      <c r="AG106" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="AH106" s="1"/>
-      <c r="AI106" s="1"/>
-      <c r="AJ106" s="1"/>
-    </row>
-    <row r="107" spans="1:36" s="22" customFormat="1" ht="186" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B107" s="22" t="s">
+    </row>
+    <row r="107" spans="1:36" ht="186" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B107" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C107" s="23">
+      <c r="C107" s="21">
         <v>2010</v>
       </c>
     </row>
-    <row r="108" spans="1:36" s="22" customFormat="1" ht="213" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B108" s="22" t="s">
+    <row r="108" spans="1:36" ht="213" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B108" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C108" s="23">
+      <c r="C108" s="21">
         <v>1992</v>
       </c>
-      <c r="E108" s="22" t="s">
+      <c r="E108" s="16" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="109" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A109" s="22"/>
-      <c r="B109" s="22" t="s">
+      <c r="B109" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C109" s="23">
+      <c r="C109" s="21">
         <v>2012</v>
       </c>
-      <c r="D109" s="22" t="s">
+      <c r="D109" s="16" t="s">
         <v>570</v>
       </c>
-      <c r="E109" s="22"/>
-      <c r="F109" s="22"/>
-      <c r="G109" s="22"/>
-      <c r="H109" s="22"/>
-      <c r="I109" s="22"/>
-      <c r="J109" s="22"/>
-      <c r="K109" s="22"/>
-      <c r="L109" s="22"/>
-      <c r="M109" s="22"/>
-      <c r="N109" s="22"/>
-      <c r="O109" s="22"/>
-      <c r="P109" s="22"/>
-      <c r="Q109" s="22"/>
-      <c r="R109" s="22"/>
-      <c r="S109" s="22"/>
-      <c r="T109" s="22"/>
-      <c r="U109" s="22"/>
-      <c r="V109" s="22"/>
-      <c r="W109" s="22"/>
-      <c r="X109" s="22"/>
-      <c r="Y109" s="22"/>
-      <c r="Z109" s="22"/>
-      <c r="AA109" s="22"/>
-      <c r="AB109" s="22"/>
-      <c r="AC109" s="22"/>
-      <c r="AD109" s="22"/>
-      <c r="AE109" s="22"/>
-      <c r="AF109" s="22"/>
-      <c r="AG109" s="22"/>
-      <c r="AH109" s="22"/>
-      <c r="AI109" s="22"/>
-      <c r="AJ109" s="22"/>
-    </row>
-    <row r="110" spans="1:36" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B110" s="22" t="s">
+    </row>
+    <row r="110" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B110" s="16" t="s">
         <v>353</v>
       </c>
-      <c r="C110" s="23">
+      <c r="C110" s="21">
         <v>1999</v>
       </c>
       <c r="AF110" s="24"/>
     </row>
     <row r="111" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A111" s="22"/>
-      <c r="B111" s="22" t="s">
+      <c r="B111" s="16" t="s">
         <v>458</v>
       </c>
-      <c r="C111" s="23">
+      <c r="C111" s="21">
         <v>2003</v>
       </c>
-      <c r="D111" s="22"/>
-      <c r="E111" s="22"/>
-      <c r="F111" s="22"/>
-      <c r="G111" s="22"/>
-      <c r="H111" s="22"/>
-      <c r="I111" s="22"/>
-      <c r="J111" s="22"/>
-      <c r="K111" s="22"/>
-      <c r="L111" s="22"/>
-      <c r="M111" s="22"/>
-      <c r="N111" s="22"/>
-      <c r="O111" s="22"/>
-      <c r="P111" s="22"/>
-      <c r="Q111" s="22"/>
-      <c r="R111" s="22"/>
-      <c r="S111" s="22"/>
-      <c r="T111" s="22"/>
-      <c r="U111" s="22"/>
-      <c r="V111" s="22"/>
-      <c r="W111" s="22"/>
-      <c r="X111" s="22"/>
-      <c r="Y111" s="22"/>
-      <c r="Z111" s="22"/>
-      <c r="AA111" s="22"/>
-      <c r="AB111" s="22"/>
-      <c r="AC111" s="22"/>
-      <c r="AD111" s="22"/>
-      <c r="AE111" s="22"/>
-      <c r="AF111" s="22"/>
-      <c r="AG111" s="22"/>
-      <c r="AH111" s="22"/>
-      <c r="AI111" s="22"/>
-      <c r="AJ111" s="22"/>
     </row>
     <row r="112" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A112" s="22"/>
-      <c r="B112" s="22" t="s">
+      <c r="B112" s="16" t="s">
         <v>388</v>
       </c>
-      <c r="C112" s="23">
+      <c r="C112" s="21">
         <v>2007</v>
       </c>
-      <c r="D112" s="22"/>
-      <c r="E112" s="22"/>
-      <c r="F112" s="22"/>
-      <c r="G112" s="22"/>
-      <c r="H112" s="22"/>
-      <c r="I112" s="22"/>
-      <c r="J112" s="22"/>
-      <c r="K112" s="22"/>
-      <c r="L112" s="22"/>
-      <c r="M112" s="22"/>
-      <c r="N112" s="22"/>
-      <c r="O112" s="22"/>
-      <c r="P112" s="22"/>
-      <c r="Q112" s="22"/>
-      <c r="R112" s="22"/>
-      <c r="S112" s="22"/>
-      <c r="T112" s="22"/>
-      <c r="U112" s="22"/>
-      <c r="V112" s="22"/>
-      <c r="W112" s="22" t="s">
-        <v>253</v>
-      </c>
-      <c r="X112" s="22"/>
-      <c r="Y112" s="22"/>
-      <c r="Z112" s="22"/>
-      <c r="AA112" s="22"/>
-      <c r="AB112" s="22"/>
-      <c r="AC112" s="22"/>
-      <c r="AD112" s="22"/>
-      <c r="AE112" s="22"/>
-      <c r="AF112" s="22"/>
-      <c r="AG112" s="22"/>
-      <c r="AH112" s="22"/>
-      <c r="AI112" s="22"/>
-      <c r="AJ112" s="22"/>
-    </row>
-    <row r="113" spans="1:36" ht="179" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="22"/>
-      <c r="B113" s="22" t="s">
+      <c r="W112" s="16" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="113" spans="2:31" ht="179" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B113" s="16" t="s">
         <v>463</v>
       </c>
-      <c r="C113" s="23">
+      <c r="C113" s="21">
         <v>2004</v>
       </c>
-      <c r="D113" s="22" t="s">
+      <c r="D113" s="16" t="s">
         <v>464</v>
       </c>
-      <c r="E113" s="22"/>
-      <c r="F113" s="22"/>
-      <c r="G113" s="22"/>
-      <c r="H113" s="22"/>
-      <c r="I113" s="22"/>
-      <c r="J113" s="22"/>
-      <c r="K113" s="22"/>
-      <c r="L113" s="22"/>
-      <c r="M113" s="22"/>
-      <c r="N113" s="22"/>
-      <c r="O113" s="22"/>
-      <c r="P113" s="22"/>
-      <c r="Q113" s="22"/>
-      <c r="R113" s="22"/>
-      <c r="S113" s="22"/>
-      <c r="T113" s="22"/>
-      <c r="U113" s="22"/>
-      <c r="V113" s="22"/>
-      <c r="W113" s="22"/>
-      <c r="X113" s="22"/>
-      <c r="Y113" s="22"/>
-      <c r="Z113" s="22"/>
-      <c r="AA113" s="22"/>
-      <c r="AB113" s="22"/>
-      <c r="AC113" s="22"/>
-      <c r="AD113" s="22"/>
-      <c r="AE113" s="22"/>
-      <c r="AF113" s="22"/>
-      <c r="AG113" s="22"/>
-      <c r="AH113" s="22"/>
-      <c r="AI113" s="22"/>
-      <c r="AJ113" s="22"/>
-    </row>
-    <row r="114" spans="1:36" s="22" customFormat="1" ht="97" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B114" s="22" t="s">
+    </row>
+    <row r="114" spans="2:31" ht="97" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B114" s="16" t="s">
         <v>536</v>
       </c>
-      <c r="C114" s="23">
+      <c r="C114" s="21">
         <v>2007</v>
       </c>
-      <c r="F114" s="22" t="s">
-        <v>253</v>
-      </c>
-      <c r="H114" s="22" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="115" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A115" s="22"/>
-      <c r="B115" s="22" t="s">
+      <c r="F114" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="H114" s="16" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="115" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="B115" s="16" t="s">
         <v>449</v>
       </c>
-      <c r="C115" s="23">
+      <c r="C115" s="21">
         <v>2002</v>
       </c>
-      <c r="D115" s="22"/>
-      <c r="E115" s="22"/>
-      <c r="F115" s="22"/>
-      <c r="G115" s="22"/>
-      <c r="H115" s="22"/>
-      <c r="I115" s="22"/>
-      <c r="J115" s="22"/>
-      <c r="K115" s="22"/>
-      <c r="L115" s="22"/>
-      <c r="M115" s="22"/>
-      <c r="N115" s="22"/>
-      <c r="O115" s="22"/>
-      <c r="P115" s="22"/>
-      <c r="Q115" s="22"/>
-      <c r="R115" s="22"/>
-      <c r="S115" s="22"/>
-      <c r="T115" s="22"/>
-      <c r="U115" s="22"/>
-      <c r="V115" s="22"/>
-      <c r="W115" s="22"/>
-      <c r="X115" s="22"/>
-      <c r="Y115" s="22"/>
-      <c r="Z115" s="22"/>
-      <c r="AA115" s="22"/>
-      <c r="AB115" s="22"/>
-      <c r="AC115" s="22"/>
-      <c r="AD115" s="22"/>
-      <c r="AE115" s="22"/>
-      <c r="AF115" s="22"/>
-      <c r="AG115" s="22"/>
-      <c r="AH115" s="22"/>
-      <c r="AI115" s="22"/>
-      <c r="AJ115" s="22"/>
-    </row>
-    <row r="116" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A116" s="22"/>
-      <c r="B116" s="22" t="s">
+    </row>
+    <row r="116" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="B116" s="16" t="s">
         <v>509</v>
       </c>
-      <c r="C116" s="23">
+      <c r="C116" s="21">
         <v>2006</v>
       </c>
-      <c r="D116" s="22"/>
-      <c r="E116" s="22"/>
-      <c r="F116" s="22"/>
-      <c r="G116" s="22"/>
-      <c r="H116" s="22"/>
-      <c r="I116" s="22"/>
-      <c r="J116" s="22"/>
-      <c r="K116" s="22"/>
-      <c r="L116" s="22"/>
-      <c r="M116" s="22"/>
-      <c r="N116" s="22"/>
-      <c r="O116" s="22"/>
-      <c r="P116" s="22"/>
-      <c r="Q116" s="22"/>
-      <c r="R116" s="22"/>
-      <c r="S116" s="22"/>
-      <c r="T116" s="22"/>
-      <c r="U116" s="22"/>
-      <c r="V116" s="22"/>
-      <c r="W116" s="22"/>
-      <c r="X116" s="22"/>
-      <c r="Y116" s="22"/>
-      <c r="Z116" s="22"/>
-      <c r="AA116" s="22"/>
-      <c r="AB116" s="22"/>
-      <c r="AC116" s="22"/>
-      <c r="AD116" s="22"/>
-      <c r="AE116" s="22"/>
-      <c r="AF116" s="22"/>
-      <c r="AG116" s="22"/>
-      <c r="AH116" s="22"/>
-      <c r="AI116" s="22"/>
-      <c r="AJ116" s="22"/>
-    </row>
-    <row r="117" spans="1:36" ht="150" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="22"/>
-      <c r="B117" s="22" t="s">
+    </row>
+    <row r="117" spans="2:31" ht="150" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B117" s="16" t="s">
         <v>571</v>
       </c>
-      <c r="C117" s="23">
+      <c r="C117" s="21">
         <v>2015</v>
       </c>
-      <c r="D117" s="22"/>
-      <c r="E117" s="22"/>
-      <c r="F117" s="22"/>
-      <c r="G117" s="22"/>
-      <c r="H117" s="22"/>
-      <c r="I117" s="22"/>
-      <c r="J117" s="22"/>
-      <c r="K117" s="22"/>
-      <c r="L117" s="22"/>
-      <c r="M117" s="22"/>
-      <c r="N117" s="22"/>
-      <c r="O117" s="22"/>
-      <c r="P117" s="22"/>
-      <c r="Q117" s="22"/>
-      <c r="R117" s="22"/>
-      <c r="S117" s="22"/>
-      <c r="T117" s="22"/>
-      <c r="U117" s="22"/>
-      <c r="V117" s="22"/>
-      <c r="W117" s="22"/>
-      <c r="X117" s="22"/>
-      <c r="Y117" s="22"/>
-      <c r="Z117" s="22"/>
-      <c r="AA117" s="22"/>
-      <c r="AB117" s="22"/>
-      <c r="AC117" s="22"/>
-      <c r="AD117" s="22"/>
-      <c r="AE117" s="22"/>
-      <c r="AF117" s="22"/>
-      <c r="AG117" s="22"/>
-      <c r="AH117" s="22"/>
-      <c r="AI117" s="22"/>
-      <c r="AJ117" s="22"/>
-    </row>
-    <row r="118" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A118" s="22"/>
-      <c r="B118" s="22" t="s">
+    </row>
+    <row r="118" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="B118" s="16" t="s">
         <v>367</v>
       </c>
-      <c r="C118" s="23">
+      <c r="C118" s="21">
         <v>1981</v>
       </c>
-      <c r="D118" s="22"/>
-      <c r="E118" s="22"/>
-      <c r="F118" s="22"/>
-      <c r="G118" s="22"/>
-      <c r="H118" s="22"/>
-      <c r="I118" s="22"/>
-      <c r="J118" s="22"/>
-      <c r="K118" s="22"/>
-      <c r="L118" s="22"/>
-      <c r="M118" s="22"/>
-      <c r="N118" s="22"/>
-      <c r="O118" s="22"/>
-      <c r="P118" s="22"/>
-      <c r="Q118" s="22"/>
-      <c r="R118" s="22"/>
-      <c r="S118" s="22"/>
-      <c r="T118" s="22"/>
-      <c r="U118" s="22"/>
-      <c r="V118" s="22"/>
-      <c r="W118" s="22"/>
-      <c r="X118" s="22"/>
-      <c r="Y118" s="22"/>
-      <c r="Z118" s="22"/>
-      <c r="AA118" s="22"/>
-      <c r="AB118" s="22"/>
-      <c r="AC118" s="22"/>
-      <c r="AD118" s="22"/>
-      <c r="AE118" s="22"/>
-      <c r="AF118" s="22"/>
-      <c r="AG118" s="22"/>
-      <c r="AH118" s="22"/>
-      <c r="AI118" s="22"/>
-      <c r="AJ118" s="22"/>
-    </row>
-    <row r="119" spans="1:36" ht="264" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="22"/>
-      <c r="B119" s="22" t="s">
+    </row>
+    <row r="119" spans="2:31" ht="264" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B119" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="C119" s="23">
+      <c r="C119" s="21">
         <v>1991</v>
       </c>
-      <c r="D119" s="22"/>
-      <c r="E119" s="22"/>
-      <c r="F119" s="22"/>
-      <c r="G119" s="22"/>
-      <c r="H119" s="22"/>
-      <c r="I119" s="22"/>
-      <c r="J119" s="22"/>
-      <c r="K119" s="22"/>
-      <c r="L119" s="22"/>
-      <c r="M119" s="22"/>
-      <c r="N119" s="22"/>
-      <c r="O119" s="22"/>
-      <c r="P119" s="22"/>
-      <c r="Q119" s="22"/>
-      <c r="R119" s="22"/>
-      <c r="S119" s="22"/>
-      <c r="T119" s="22"/>
-      <c r="U119" s="22"/>
-      <c r="V119" s="22"/>
-      <c r="W119" s="22"/>
-      <c r="X119" s="22"/>
-      <c r="Y119" s="22"/>
-      <c r="Z119" s="22"/>
-      <c r="AA119" s="22"/>
-      <c r="AB119" s="22"/>
-      <c r="AC119" s="22"/>
-      <c r="AD119" s="22"/>
-      <c r="AE119" s="22"/>
-      <c r="AF119" s="22"/>
-      <c r="AG119" s="22"/>
-      <c r="AH119" s="22"/>
-      <c r="AI119" s="22"/>
-      <c r="AJ119" s="22"/>
-    </row>
-    <row r="120" spans="1:36" ht="265" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="22"/>
-      <c r="B120" s="22" t="s">
+    </row>
+    <row r="120" spans="2:31" ht="265" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B120" s="16" t="s">
         <v>596</v>
       </c>
-      <c r="C120" s="23">
+      <c r="C120" s="21">
         <v>2014</v>
       </c>
-      <c r="D120" s="22"/>
-      <c r="E120" s="22"/>
-      <c r="F120" s="22"/>
-      <c r="G120" s="22"/>
-      <c r="H120" s="22"/>
-      <c r="I120" s="22"/>
-      <c r="J120" s="22"/>
-      <c r="K120" s="22"/>
-      <c r="L120" s="22"/>
-      <c r="M120" s="22"/>
-      <c r="N120" s="22"/>
-      <c r="O120" s="22"/>
-      <c r="P120" s="22"/>
-      <c r="Q120" s="22"/>
-      <c r="R120" s="22"/>
-      <c r="S120" s="22"/>
-      <c r="T120" s="22"/>
-      <c r="U120" s="22"/>
-      <c r="V120" s="22"/>
-      <c r="W120" s="22"/>
-      <c r="X120" s="22"/>
-      <c r="Y120" s="22"/>
-      <c r="Z120" s="22"/>
-      <c r="AA120" s="22"/>
-      <c r="AB120" s="22"/>
-      <c r="AC120" s="22"/>
-      <c r="AD120" s="22"/>
-      <c r="AE120" s="22"/>
-      <c r="AF120" s="22"/>
-      <c r="AG120" s="22"/>
-      <c r="AH120" s="22"/>
-      <c r="AI120" s="22"/>
-      <c r="AJ120" s="22"/>
-    </row>
-    <row r="121" spans="1:36" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B121" s="22" t="s">
+    </row>
+    <row r="121" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="B121" s="16" t="s">
         <v>465</v>
       </c>
-      <c r="C121" s="23">
+      <c r="C121" s="21">
         <v>2004</v>
       </c>
     </row>
-    <row r="122" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A122" s="5"/>
-      <c r="B122" s="5" t="s">
+    <row r="122" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="B122" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C122" s="6" t="s">
+      <c r="C122" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="D122" s="5"/>
-      <c r="E122" s="5" t="s">
+      <c r="E122" s="16" t="s">
         <v>343</v>
       </c>
-      <c r="F122" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G122" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H122" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I122" s="7"/>
-      <c r="J122" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="K122" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="L122" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M122" s="7"/>
-      <c r="N122" s="7"/>
-      <c r="O122" s="7"/>
-      <c r="P122" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q122" s="7"/>
-      <c r="R122" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="S122" s="5"/>
-      <c r="T122" s="7"/>
-      <c r="U122" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="V122" s="7"/>
-      <c r="W122" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="X122" s="5"/>
-      <c r="Y122" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="Z122" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA122" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="AB122" s="5"/>
-      <c r="AC122" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD122" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="AE122" s="5" t="s">
+      <c r="F122" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="G122" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="H122" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="I122" s="32"/>
+      <c r="J122" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="K122" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="L122" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="M122" s="32"/>
+      <c r="N122" s="32"/>
+      <c r="O122" s="32"/>
+      <c r="P122" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q122" s="32"/>
+      <c r="R122" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="T122" s="32"/>
+      <c r="U122" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="V122" s="32"/>
+      <c r="W122" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y122" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z122" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA122" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC122" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD122" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE122" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="AF122" s="5"/>
-      <c r="AG122" s="5"/>
-      <c r="AH122" s="5"/>
-      <c r="AI122" s="5"/>
-      <c r="AJ122" s="5"/>
-    </row>
-    <row r="123" spans="1:36" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B123" s="22" t="s">
+    </row>
+    <row r="123" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="B123" s="16" t="s">
         <v>366</v>
       </c>
-      <c r="C123" s="23">
+      <c r="C123" s="21">
         <v>1979</v>
       </c>
     </row>
-    <row r="124" spans="1:36" ht="110" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="22"/>
-      <c r="B124" s="22" t="s">
+    <row r="124" spans="2:31" ht="110" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B124" s="16" t="s">
         <v>508</v>
       </c>
-      <c r="C124" s="23">
+      <c r="C124" s="21">
         <v>2005</v>
       </c>
-      <c r="D124" s="22"/>
-      <c r="E124" s="22"/>
-      <c r="F124" s="22"/>
-      <c r="G124" s="22"/>
-      <c r="H124" s="22"/>
-      <c r="I124" s="22"/>
-      <c r="J124" s="22"/>
-      <c r="K124" s="22"/>
-      <c r="L124" s="22"/>
-      <c r="M124" s="22"/>
-      <c r="N124" s="22"/>
-      <c r="O124" s="22"/>
-      <c r="P124" s="22"/>
-      <c r="Q124" s="22"/>
-      <c r="R124" s="22"/>
-      <c r="S124" s="22"/>
-      <c r="T124" s="22"/>
-      <c r="U124" s="22"/>
-      <c r="V124" s="22"/>
-      <c r="W124" s="22"/>
-      <c r="X124" s="22"/>
-      <c r="Y124" s="22"/>
-      <c r="Z124" s="22"/>
-      <c r="AA124" s="22"/>
-      <c r="AB124" s="22"/>
-      <c r="AC124" s="22"/>
-      <c r="AD124" s="22"/>
-      <c r="AE124" s="22"/>
-      <c r="AF124" s="22"/>
-      <c r="AG124" s="22"/>
-      <c r="AH124" s="22"/>
-      <c r="AI124" s="22"/>
-      <c r="AJ124" s="22"/>
-    </row>
-    <row r="125" spans="1:36" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B125" s="22" t="s">
+    </row>
+    <row r="125" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="B125" s="16" t="s">
         <v>554</v>
       </c>
-      <c r="C125" s="23">
+      <c r="C125" s="21">
         <v>2010</v>
       </c>
-      <c r="D125" s="22" t="s">
+      <c r="D125" s="16" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="126" spans="1:36" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B126" s="22" t="s">
+    <row r="126" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="B126" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C126" s="23">
+      <c r="C126" s="21">
         <v>2010</v>
       </c>
     </row>
-    <row r="127" spans="1:36" ht="157" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="22"/>
-      <c r="B127" s="22" t="s">
+    <row r="127" spans="2:31" ht="157" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B127" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C127" s="23">
+      <c r="C127" s="21">
         <v>2011</v>
       </c>
-      <c r="D127" s="22"/>
-      <c r="E127" s="22"/>
-      <c r="F127" s="22"/>
-      <c r="G127" s="22"/>
-      <c r="H127" s="22"/>
-      <c r="I127" s="22"/>
-      <c r="J127" s="22"/>
-      <c r="K127" s="22"/>
-      <c r="L127" s="22"/>
-      <c r="M127" s="22"/>
-      <c r="N127" s="22"/>
-      <c r="O127" s="22"/>
-      <c r="P127" s="22"/>
-      <c r="Q127" s="22"/>
-      <c r="R127" s="22"/>
-      <c r="S127" s="22"/>
-      <c r="T127" s="22"/>
-      <c r="U127" s="22"/>
-      <c r="V127" s="22"/>
-      <c r="W127" s="22"/>
-      <c r="X127" s="22"/>
-      <c r="Y127" s="22"/>
-      <c r="Z127" s="22"/>
-      <c r="AA127" s="22"/>
-      <c r="AB127" s="22"/>
-      <c r="AC127" s="22"/>
-      <c r="AD127" s="22"/>
-      <c r="AE127" s="22"/>
-      <c r="AF127" s="22"/>
-      <c r="AG127" s="22"/>
-      <c r="AH127" s="22"/>
-      <c r="AI127" s="22"/>
-      <c r="AJ127" s="22"/>
-    </row>
-    <row r="128" spans="1:36" ht="195" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="22"/>
-      <c r="B128" s="22" t="s">
+    </row>
+    <row r="128" spans="2:31" ht="195" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B128" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C128" s="23">
+      <c r="C128" s="21">
         <v>2008</v>
       </c>
-      <c r="D128" s="22"/>
-      <c r="E128" s="22"/>
-      <c r="F128" s="22"/>
-      <c r="G128" s="22"/>
-      <c r="H128" s="22"/>
-      <c r="I128" s="22"/>
-      <c r="J128" s="22"/>
-      <c r="K128" s="22"/>
-      <c r="L128" s="22"/>
-      <c r="M128" s="22"/>
-      <c r="N128" s="22"/>
-      <c r="O128" s="22"/>
-      <c r="P128" s="22"/>
-      <c r="Q128" s="22"/>
-      <c r="R128" s="22"/>
-      <c r="S128" s="22"/>
-      <c r="T128" s="22"/>
-      <c r="U128" s="22"/>
-      <c r="V128" s="22"/>
-      <c r="W128" s="22"/>
-      <c r="X128" s="22"/>
-      <c r="Y128" s="22"/>
-      <c r="Z128" s="22"/>
-      <c r="AA128" s="22"/>
-      <c r="AB128" s="22"/>
-      <c r="AC128" s="22"/>
-      <c r="AD128" s="22"/>
-      <c r="AE128" s="22"/>
-      <c r="AF128" s="22"/>
-      <c r="AG128" s="22"/>
-      <c r="AH128" s="22"/>
-      <c r="AI128" s="22"/>
-      <c r="AJ128" s="22"/>
-    </row>
-    <row r="129" spans="1:36" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B129" s="22" t="s">
+    </row>
+    <row r="129" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B129" s="16" t="s">
         <v>453</v>
       </c>
-      <c r="C129" s="23">
+      <c r="C129" s="21">
         <v>2002</v>
       </c>
     </row>
-    <row r="130" spans="1:36" ht="195" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="22"/>
-      <c r="B130" s="22" t="s">
+    <row r="130" spans="2:5" ht="195" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B130" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="C130" s="23">
+      <c r="C130" s="21">
         <v>2000</v>
       </c>
-      <c r="D130" s="22"/>
-      <c r="E130" s="22"/>
-      <c r="F130" s="22"/>
-      <c r="G130" s="22"/>
-      <c r="H130" s="22"/>
-      <c r="I130" s="22"/>
-      <c r="J130" s="22"/>
-      <c r="K130" s="22"/>
-      <c r="L130" s="22"/>
-      <c r="M130" s="22"/>
-      <c r="N130" s="22"/>
-      <c r="O130" s="22"/>
-      <c r="P130" s="22"/>
-      <c r="Q130" s="22"/>
-      <c r="R130" s="22"/>
-      <c r="S130" s="22"/>
-      <c r="T130" s="22"/>
-      <c r="U130" s="22"/>
-      <c r="V130" s="22"/>
-      <c r="W130" s="22"/>
-      <c r="X130" s="22"/>
-      <c r="Y130" s="22"/>
-      <c r="Z130" s="22"/>
-      <c r="AA130" s="22"/>
-      <c r="AB130" s="22"/>
-      <c r="AC130" s="22"/>
-      <c r="AD130" s="22"/>
-      <c r="AE130" s="22"/>
-      <c r="AF130" s="22"/>
-      <c r="AG130" s="22"/>
-      <c r="AH130" s="22"/>
-      <c r="AI130" s="22"/>
-      <c r="AJ130" s="22"/>
-    </row>
-    <row r="131" spans="1:36" ht="224" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="22"/>
-      <c r="B131" s="22" t="s">
+    </row>
+    <row r="131" spans="2:5" ht="224" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B131" s="16" t="s">
         <v>202</v>
       </c>
-      <c r="C131" s="23">
+      <c r="C131" s="21">
         <v>1999</v>
       </c>
-      <c r="D131" s="22"/>
-      <c r="E131" s="22"/>
-      <c r="F131" s="22"/>
-      <c r="G131" s="22"/>
-      <c r="H131" s="22"/>
-      <c r="I131" s="22"/>
-      <c r="J131" s="22"/>
-      <c r="K131" s="22"/>
-      <c r="L131" s="22"/>
-      <c r="M131" s="22"/>
-      <c r="N131" s="22"/>
-      <c r="O131" s="22"/>
-      <c r="P131" s="22"/>
-      <c r="Q131" s="22"/>
-      <c r="R131" s="22"/>
-      <c r="S131" s="22"/>
-      <c r="T131" s="22"/>
-      <c r="U131" s="22"/>
-      <c r="V131" s="22"/>
-      <c r="W131" s="22"/>
-      <c r="X131" s="22"/>
-      <c r="Y131" s="22"/>
-      <c r="Z131" s="22"/>
-      <c r="AA131" s="22"/>
-      <c r="AB131" s="22"/>
-      <c r="AC131" s="22"/>
-      <c r="AD131" s="22"/>
-      <c r="AE131" s="22"/>
-      <c r="AF131" s="22"/>
-      <c r="AG131" s="22"/>
-      <c r="AH131" s="22"/>
-      <c r="AI131" s="22"/>
-      <c r="AJ131" s="22"/>
-    </row>
-    <row r="132" spans="1:36" ht="234" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="22"/>
-      <c r="B132" s="22" t="s">
+    </row>
+    <row r="132" spans="2:5" ht="234" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B132" s="16" t="s">
         <v>500</v>
       </c>
-      <c r="C132" s="23">
+      <c r="C132" s="21">
         <v>2004</v>
       </c>
-      <c r="D132" s="22"/>
-      <c r="E132" s="22" t="s">
+      <c r="E132" s="16" t="s">
         <v>501</v>
       </c>
-      <c r="F132" s="22"/>
-      <c r="G132" s="22"/>
-      <c r="H132" s="22"/>
-      <c r="I132" s="22"/>
-      <c r="J132" s="22"/>
-      <c r="K132" s="22"/>
-      <c r="L132" s="22"/>
-      <c r="M132" s="22"/>
-      <c r="N132" s="22"/>
-      <c r="O132" s="22"/>
-      <c r="P132" s="22"/>
-      <c r="Q132" s="22"/>
-      <c r="R132" s="22"/>
-      <c r="S132" s="22"/>
-      <c r="T132" s="22"/>
-      <c r="U132" s="22"/>
-      <c r="V132" s="22"/>
-      <c r="W132" s="22"/>
-      <c r="X132" s="22"/>
-      <c r="Y132" s="22"/>
-      <c r="Z132" s="22"/>
-      <c r="AA132" s="22"/>
-      <c r="AB132" s="22"/>
-      <c r="AC132" s="22"/>
-      <c r="AD132" s="22"/>
-      <c r="AE132" s="22"/>
-      <c r="AF132" s="22"/>
-      <c r="AG132" s="22"/>
-      <c r="AH132" s="22"/>
-      <c r="AI132" s="22"/>
-      <c r="AJ132" s="22"/>
-    </row>
-    <row r="133" spans="1:36" ht="94" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="22"/>
-      <c r="B133" s="22" t="s">
+    </row>
+    <row r="133" spans="2:5" ht="94" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B133" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C133" s="23">
+      <c r="C133" s="21">
         <v>2012</v>
       </c>
-      <c r="D133" s="22"/>
-      <c r="E133" s="22"/>
-      <c r="F133" s="22"/>
-      <c r="G133" s="22"/>
-      <c r="H133" s="22"/>
-      <c r="I133" s="22"/>
-      <c r="J133" s="22"/>
-      <c r="K133" s="22"/>
-      <c r="L133" s="22"/>
-      <c r="M133" s="22"/>
-      <c r="N133" s="22"/>
-      <c r="O133" s="22"/>
-      <c r="P133" s="22"/>
-      <c r="Q133" s="22"/>
-      <c r="R133" s="22"/>
-      <c r="S133" s="22"/>
-      <c r="T133" s="22"/>
-      <c r="U133" s="22"/>
-      <c r="V133" s="22"/>
-      <c r="W133" s="22"/>
-      <c r="X133" s="22"/>
-      <c r="Y133" s="22"/>
-      <c r="Z133" s="22"/>
-      <c r="AA133" s="22"/>
-      <c r="AB133" s="22"/>
-      <c r="AC133" s="22"/>
-      <c r="AD133" s="22"/>
-      <c r="AE133" s="22"/>
-      <c r="AF133" s="22"/>
-      <c r="AG133" s="22"/>
-      <c r="AH133" s="22"/>
-      <c r="AI133" s="22"/>
-      <c r="AJ133" s="22"/>
-    </row>
-    <row r="134" spans="1:36" x14ac:dyDescent="0.2">
-      <c r="A134" s="22"/>
-      <c r="B134" s="22" t="s">
+    </row>
+    <row r="134" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B134" s="16" t="s">
         <v>560</v>
       </c>
-      <c r="C134" s="23">
+      <c r="C134" s="21">
         <v>2011</v>
       </c>
-      <c r="D134" s="22"/>
-      <c r="E134" s="22"/>
-      <c r="F134" s="22"/>
-      <c r="G134" s="22"/>
-      <c r="H134" s="22"/>
-      <c r="I134" s="22"/>
-      <c r="J134" s="22"/>
-      <c r="K134" s="22"/>
-      <c r="L134" s="22"/>
-      <c r="M134" s="22"/>
-      <c r="N134" s="22"/>
-      <c r="O134" s="22"/>
-      <c r="P134" s="22"/>
-      <c r="Q134" s="22"/>
-      <c r="R134" s="22"/>
-      <c r="S134" s="22"/>
-      <c r="T134" s="22"/>
-      <c r="U134" s="22"/>
-      <c r="V134" s="22"/>
-      <c r="W134" s="22"/>
-      <c r="X134" s="22"/>
-      <c r="Y134" s="22"/>
-      <c r="Z134" s="22"/>
-      <c r="AA134" s="22"/>
-      <c r="AB134" s="22"/>
-      <c r="AC134" s="22"/>
-      <c r="AD134" s="22"/>
-      <c r="AE134" s="22"/>
-      <c r="AF134" s="22"/>
-      <c r="AG134" s="22"/>
-      <c r="AH134" s="22"/>
-      <c r="AI134" s="22"/>
-      <c r="AJ134" s="22"/>
     </row>
   </sheetData>
   <sortState ref="A2:AJ134">
@@ -8364,7 +6812,7 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="6.6640625" style="16" customWidth="1"/>
+    <col min="2" max="2" width="6.6640625" style="15" customWidth="1"/>
     <col min="3" max="4" width="21.83203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="4.6640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="5" style="1" customWidth="1"/>
@@ -8540,7 +6988,7 @@
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="16">
+      <c r="B3" s="15">
         <v>2015</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -8608,7 +7056,7 @@
       <c r="A4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="16">
+      <c r="B4" s="15">
         <v>2012</v>
       </c>
     </row>
@@ -8616,7 +7064,7 @@
       <c r="A5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B5" s="15">
         <v>2010</v>
       </c>
     </row>
@@ -8624,7 +7072,7 @@
       <c r="A6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="16">
+      <c r="B6" s="15">
         <v>2014</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -8633,26 +7081,26 @@
       <c r="D6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="18"/>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="18"/>
-      <c r="R6" s="18"/>
-      <c r="S6" s="18"/>
-      <c r="T6" s="18"/>
-      <c r="U6" s="18"/>
-      <c r="V6" s="18"/>
-      <c r="W6" s="18"/>
-      <c r="X6" s="18"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="16"/>
+      <c r="R6" s="16"/>
+      <c r="S6" s="16"/>
+      <c r="T6" s="16"/>
+      <c r="U6" s="16"/>
+      <c r="V6" s="16"/>
+      <c r="W6" s="16"/>
+      <c r="X6" s="16"/>
       <c r="Y6" s="1" t="s">
         <v>37</v>
       </c>
@@ -8673,7 +7121,7 @@
       <c r="A7" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="16">
+      <c r="B7" s="15">
         <v>2015</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -8732,7 +7180,7 @@
       <c r="A8" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B8" s="16">
+      <c r="B8" s="15">
         <v>2015</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -8767,7 +7215,7 @@
       <c r="A9" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B9" s="16">
+      <c r="B9" s="15">
         <v>2016</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -8817,7 +7265,7 @@
       <c r="A10" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B10" s="16">
+      <c r="B10" s="15">
         <v>2016</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -8843,7 +7291,7 @@
       <c r="A11" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B11" s="16">
+      <c r="B11" s="15">
         <v>2016</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -8884,7 +7332,7 @@
       <c r="A12" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B12" s="16">
+      <c r="B12" s="15">
         <v>2016</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -8978,7 +7426,7 @@
       <c r="A14" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B14" s="16">
+      <c r="B14" s="15">
         <v>2014</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -9004,7 +7452,7 @@
       <c r="A15" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B15" s="16">
+      <c r="B15" s="15">
         <v>2015</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -9027,7 +7475,7 @@
       <c r="A16" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B16" s="16">
+      <c r="B16" s="15">
         <v>1978</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -9050,7 +7498,7 @@
       <c r="A17" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B17" s="16">
+      <c r="B17" s="15">
         <v>2002</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -9091,7 +7539,7 @@
       <c r="A18" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B18" s="16">
+      <c r="B18" s="15">
         <v>1999</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -9135,7 +7583,7 @@
       <c r="A19" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B19" s="16">
+      <c r="B19" s="15">
         <v>2014</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -9171,7 +7619,7 @@
       <c r="A20" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B20" s="16">
+      <c r="B20" s="15">
         <v>2004</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -9209,7 +7657,7 @@
       <c r="A21" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B21" s="16">
+      <c r="B21" s="15">
         <v>2001</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -9244,7 +7692,7 @@
       </c>
     </row>
     <row r="22" spans="1:30" ht="56" x14ac:dyDescent="0.2">
-      <c r="B22" s="16">
+      <c r="B22" s="15">
         <v>2016</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -9270,7 +7718,7 @@
       <c r="A23" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B23" s="16">
+      <c r="B23" s="15">
         <v>2015</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -9299,7 +7747,7 @@
       <c r="A24" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="B24" s="16">
+      <c r="B24" s="15">
         <v>2015</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -9322,7 +7770,7 @@
       <c r="A25" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B25" s="16">
+      <c r="B25" s="15">
         <v>2015</v>
       </c>
       <c r="C25" s="1" t="s">
@@ -9345,7 +7793,7 @@
       <c r="A26" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="B26" s="16">
+      <c r="B26" s="15">
         <v>2015</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -9444,7 +7892,7 @@
       <c r="A29" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="B29" s="16">
+      <c r="B29" s="15">
         <v>2002</v>
       </c>
       <c r="C29" s="1" t="s">
@@ -9485,7 +7933,7 @@
       <c r="A30" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="B30" s="16">
+      <c r="B30" s="15">
         <v>2015</v>
       </c>
       <c r="C30" s="1" t="s">
@@ -9523,7 +7971,7 @@
       <c r="A31" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="B31" s="16">
+      <c r="B31" s="15">
         <v>2015</v>
       </c>
       <c r="C31" s="1" t="s">
@@ -9543,7 +7991,7 @@
       <c r="A32" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="B32" s="16">
+      <c r="B32" s="15">
         <v>2015</v>
       </c>
       <c r="C32" s="1" t="s">
@@ -9602,7 +8050,7 @@
       <c r="A33" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="B33" s="16">
+      <c r="B33" s="15">
         <v>2016</v>
       </c>
       <c r="C33" s="1" t="s">
@@ -9640,7 +8088,7 @@
       <c r="A34" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="B34" s="16" t="s">
+      <c r="B34" s="15" t="s">
         <v>243</v>
       </c>
       <c r="C34" s="1" t="s">
@@ -9649,7 +8097,7 @@
       <c r="D34" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="AA34" s="15" t="s">
+      <c r="AA34" s="14" t="s">
         <v>247</v>
       </c>
       <c r="AB34" s="1" t="s">
@@ -9660,7 +8108,7 @@
       <c r="A35" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="B35" s="16">
+      <c r="B35" s="15">
         <v>2016</v>
       </c>
       <c r="C35" s="1" t="s">
@@ -9701,7 +8149,7 @@
       <c r="A36" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="B36" s="16">
+      <c r="B36" s="15">
         <v>2010</v>
       </c>
       <c r="C36" s="1" t="s">
@@ -9742,7 +8190,7 @@
       <c r="A37" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="B37" s="16">
+      <c r="B37" s="15">
         <v>2009</v>
       </c>
       <c r="C37" s="1" t="s">
@@ -9787,10 +8235,10 @@
       <c r="AA37" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="AB37" s="15" t="s">
+      <c r="AB37" s="14" t="s">
         <v>262</v>
       </c>
-      <c r="AC37" s="15" t="s">
+      <c r="AC37" s="14" t="s">
         <v>269</v>
       </c>
     </row>
@@ -9798,7 +8246,7 @@
       <c r="A38" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="B38" s="16">
+      <c r="B38" s="15">
         <v>2014</v>
       </c>
       <c r="C38" s="1" t="s">
@@ -9842,7 +8290,7 @@
       <c r="A39" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="B39" s="16" t="s">
+      <c r="B39" s="15" t="s">
         <v>276</v>
       </c>
       <c r="C39" s="1" t="s">
@@ -9859,7 +8307,7 @@
       <c r="A40" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="B40" s="16">
+      <c r="B40" s="15">
         <v>2010</v>
       </c>
       <c r="C40" s="1" t="s">
@@ -9871,7 +8319,7 @@
       <c r="AA40" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="AB40" s="15" t="s">
+      <c r="AB40" s="14" t="s">
         <v>280</v>
       </c>
     </row>
@@ -9879,7 +8327,7 @@
       <c r="A41" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="B41" s="16" t="s">
+      <c r="B41" s="15" t="s">
         <v>282</v>
       </c>
       <c r="C41" s="1" t="s">
@@ -9927,7 +8375,7 @@
       <c r="AA41" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="AB41" s="15" t="s">
+      <c r="AB41" s="14" t="s">
         <v>285</v>
       </c>
     </row>
@@ -9935,7 +8383,7 @@
       <c r="A42" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="B42" s="16" t="s">
+      <c r="B42" s="15" t="s">
         <v>276</v>
       </c>
       <c r="C42" s="1" t="s">
@@ -9988,7 +8436,7 @@
       <c r="A43" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="B43" s="16">
+      <c r="B43" s="15">
         <v>2016</v>
       </c>
       <c r="C43" s="1" t="s">
@@ -10032,7 +8480,7 @@
       <c r="A44" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="B44" s="16" t="s">
+      <c r="B44" s="15" t="s">
         <v>276</v>
       </c>
       <c r="C44" s="1" t="s">
@@ -10088,10 +8536,10 @@
       <c r="A45" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="B45" s="16" t="s">
+      <c r="B45" s="15" t="s">
         <v>276</v>
       </c>
-      <c r="C45" s="15" t="s">
+      <c r="C45" s="14" t="s">
         <v>309</v>
       </c>
       <c r="D45" s="1" t="s">
@@ -10138,7 +8586,7 @@
       <c r="A46" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="B46" s="16">
+      <c r="B46" s="15">
         <v>2013</v>
       </c>
       <c r="C46" s="1" t="s">
@@ -10161,7 +8609,7 @@
       <c r="A47" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="B47" s="16">
+      <c r="B47" s="15">
         <v>2015</v>
       </c>
       <c r="C47" s="1" t="s">
@@ -10187,13 +8635,13 @@
       <c r="A48" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="B48" s="16">
+      <c r="B48" s="15">
         <v>2008</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="AA48" s="15" t="s">
+      <c r="AA48" s="14" t="s">
         <v>329</v>
       </c>
     </row>
@@ -10201,7 +8649,7 @@
       <c r="A49" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="B49" s="16">
+      <c r="B49" s="15">
         <v>2008</v>
       </c>
       <c r="C49" s="1" t="s">
@@ -10222,7 +8670,7 @@
       <c r="Z49" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="AA49" s="15" t="s">
+      <c r="AA49" s="14" t="s">
         <v>336</v>
       </c>
     </row>
@@ -10230,7 +8678,7 @@
       <c r="A50" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="B50" s="16">
+      <c r="B50" s="15">
         <v>2007</v>
       </c>
       <c r="C50" s="1" t="s">
@@ -10266,12 +8714,12 @@
       <c r="Z50" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="AA50" s="15" t="s">
+      <c r="AA50" s="14" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="51" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="AA51" s="15"/>
+      <c r="AA51" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10290,177 +8738,182 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:29" s="1" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="B1" s="30">
+      <c r="B1" s="18">
         <v>2002</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
-      <c r="S1" s="31"/>
-      <c r="T1" s="31"/>
-      <c r="U1" s="31"/>
-      <c r="V1" s="31"/>
-      <c r="W1" s="31"/>
-      <c r="X1" s="31"/>
-      <c r="Y1" s="31"/>
-      <c r="Z1" s="31"/>
-      <c r="AA1" s="30" t="s">
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="17"/>
+      <c r="V1" s="17"/>
+      <c r="W1" s="17"/>
+      <c r="X1" s="17"/>
+      <c r="Y1" s="17"/>
+      <c r="Z1" s="17"/>
+      <c r="AA1" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="AB1" s="31"/>
-      <c r="AC1" s="31"/>
+      <c r="AB1" s="17"/>
+      <c r="AC1" s="17"/>
     </row>
     <row r="2" spans="1:29" s="1" customFormat="1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="31"/>
-      <c r="S2" s="31"/>
-      <c r="T2" s="31"/>
-      <c r="U2" s="31"/>
-      <c r="V2" s="31"/>
-      <c r="W2" s="31"/>
-      <c r="X2" s="31"/>
-      <c r="Y2" s="31"/>
-      <c r="Z2" s="31"/>
-      <c r="AA2" s="30"/>
-      <c r="AB2" s="31"/>
-      <c r="AC2" s="31"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
+      <c r="V2" s="17"/>
+      <c r="W2" s="17"/>
+      <c r="X2" s="17"/>
+      <c r="Y2" s="17"/>
+      <c r="Z2" s="17"/>
+      <c r="AA2" s="18"/>
+      <c r="AB2" s="17"/>
+      <c r="AC2" s="17"/>
     </row>
     <row r="3" spans="1:29" s="1" customFormat="1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A3" s="30"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="31"/>
-      <c r="P3" s="31"/>
-      <c r="Q3" s="31"/>
-      <c r="R3" s="31"/>
-      <c r="S3" s="31"/>
-      <c r="T3" s="31"/>
-      <c r="U3" s="31"/>
-      <c r="V3" s="31"/>
-      <c r="W3" s="31"/>
-      <c r="X3" s="31"/>
-      <c r="Y3" s="31"/>
-      <c r="Z3" s="31"/>
-      <c r="AA3" s="30"/>
-      <c r="AB3" s="31"/>
-      <c r="AC3" s="31"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="17"/>
+      <c r="T3" s="17"/>
+      <c r="U3" s="17"/>
+      <c r="V3" s="17"/>
+      <c r="W3" s="17"/>
+      <c r="X3" s="17"/>
+      <c r="Y3" s="17"/>
+      <c r="Z3" s="17"/>
+      <c r="AA3" s="18"/>
+      <c r="AB3" s="17"/>
+      <c r="AC3" s="17"/>
     </row>
     <row r="4" spans="1:29" s="1" customFormat="1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A4" s="30"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="31"/>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="31"/>
-      <c r="R4" s="31"/>
-      <c r="S4" s="31"/>
-      <c r="T4" s="31"/>
-      <c r="U4" s="31"/>
-      <c r="V4" s="31"/>
-      <c r="W4" s="31"/>
-      <c r="X4" s="31"/>
-      <c r="Y4" s="31"/>
-      <c r="Z4" s="31"/>
-      <c r="AA4" s="30"/>
-      <c r="AB4" s="31"/>
-      <c r="AC4" s="31"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
+      <c r="S4" s="17"/>
+      <c r="T4" s="17"/>
+      <c r="U4" s="17"/>
+      <c r="V4" s="17"/>
+      <c r="W4" s="17"/>
+      <c r="X4" s="17"/>
+      <c r="Y4" s="17"/>
+      <c r="Z4" s="17"/>
+      <c r="AA4" s="18"/>
+      <c r="AB4" s="17"/>
+      <c r="AC4" s="17"/>
     </row>
     <row r="5" spans="1:29" s="1" customFormat="1" ht="14" x14ac:dyDescent="0.2">
-      <c r="A5" s="30"/>
-      <c r="B5" s="30"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="31"/>
-      <c r="P5" s="31"/>
-      <c r="Q5" s="31"/>
-      <c r="R5" s="31"/>
-      <c r="S5" s="31"/>
-      <c r="T5" s="31"/>
-      <c r="U5" s="31"/>
-      <c r="V5" s="31"/>
-      <c r="W5" s="31"/>
-      <c r="X5" s="31"/>
-      <c r="Y5" s="31"/>
-      <c r="Z5" s="31"/>
-      <c r="AA5" s="30"/>
-      <c r="AB5" s="31"/>
-      <c r="AC5" s="31"/>
+      <c r="A5" s="18"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="17"/>
+      <c r="T5" s="17"/>
+      <c r="U5" s="17"/>
+      <c r="V5" s="17"/>
+      <c r="W5" s="17"/>
+      <c r="X5" s="17"/>
+      <c r="Y5" s="17"/>
+      <c r="Z5" s="17"/>
+      <c r="AA5" s="18"/>
+      <c r="AB5" s="17"/>
+      <c r="AC5" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="Y1:Y5"/>
-    <mergeCell ref="Z1:Z5"/>
-    <mergeCell ref="AA1:AA5"/>
-    <mergeCell ref="AB1:AB5"/>
-    <mergeCell ref="AC1:AC5"/>
+    <mergeCell ref="A1:A5"/>
+    <mergeCell ref="B1:B5"/>
+    <mergeCell ref="C1:C5"/>
+    <mergeCell ref="D1:D5"/>
+    <mergeCell ref="E1:E5"/>
+    <mergeCell ref="F1:F5"/>
+    <mergeCell ref="G1:G5"/>
+    <mergeCell ref="H1:H5"/>
+    <mergeCell ref="I1:I5"/>
+    <mergeCell ref="J1:J5"/>
     <mergeCell ref="K1:K5"/>
     <mergeCell ref="L1:L5"/>
     <mergeCell ref="X1:X5"/>
@@ -10475,16 +8928,11 @@
     <mergeCell ref="U1:U5"/>
     <mergeCell ref="V1:V5"/>
     <mergeCell ref="W1:W5"/>
-    <mergeCell ref="F1:F5"/>
-    <mergeCell ref="G1:G5"/>
-    <mergeCell ref="H1:H5"/>
-    <mergeCell ref="I1:I5"/>
-    <mergeCell ref="J1:J5"/>
-    <mergeCell ref="A1:A5"/>
-    <mergeCell ref="B1:B5"/>
-    <mergeCell ref="C1:C5"/>
-    <mergeCell ref="D1:D5"/>
-    <mergeCell ref="E1:E5"/>
+    <mergeCell ref="Y1:Y5"/>
+    <mergeCell ref="Z1:Z5"/>
+    <mergeCell ref="AA1:AA5"/>
+    <mergeCell ref="AB1:AB5"/>
+    <mergeCell ref="AC1:AC5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
